--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_14_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_14_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>924153.3912477682</v>
+        <v>922334.6296882698</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4561584.946683282</v>
+        <v>4561584.946683277</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -1154,34 +1154,34 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1215,13 +1215,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>5.309829763041575</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G9" t="n">
         <v>6.876045741711437</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.334980354192922</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="R10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>3.334980354192922</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>301.9748715999007</v>
       </c>
       <c r="C11" t="n">
         <v>284.5139217074276</v>
@@ -1376,7 +1376,7 @@
         <v>273.924071557103</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>301.1714000086819</v>
       </c>
       <c r="F11" t="n">
         <v>326.1170756781315</v>
@@ -1388,7 +1388,7 @@
         <v>230.9021637362736</v>
       </c>
       <c r="I11" t="n">
-        <v>25.0142271841837</v>
+        <v>25.01422718418368</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.3737355047104</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>130.4482591609531</v>
       </c>
       <c r="U11" t="n">
-        <v>170.3694150824821</v>
+        <v>80.70705354382856</v>
       </c>
       <c r="V11" t="n">
         <v>246.993288406555</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>141.6312059727447</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>305.4789685924737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>135.8904109003521</v>
       </c>
       <c r="H12" t="n">
-        <v>98.20149690836232</v>
+        <v>98.20149690836209</v>
       </c>
       <c r="I12" t="n">
         <v>39.3664391521176</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.07301011835739</v>
+        <v>99.07301011835737</v>
       </c>
       <c r="C13" t="n">
-        <v>86.48785103504792</v>
+        <v>86.48785103504791</v>
       </c>
       <c r="D13" t="n">
-        <v>67.85650295463245</v>
+        <v>67.85650295463243</v>
       </c>
       <c r="E13" t="n">
-        <v>65.67499258298926</v>
+        <v>65.67499258298925</v>
       </c>
       <c r="F13" t="n">
-        <v>64.66207795935134</v>
+        <v>64.66207795935132</v>
       </c>
       <c r="G13" t="n">
-        <v>86.01377381710125</v>
+        <v>86.01377381710124</v>
       </c>
       <c r="H13" t="n">
-        <v>70.63698155961873</v>
+        <v>70.63698155961872</v>
       </c>
       <c r="I13" t="n">
-        <v>38.05584158651169</v>
+        <v>38.05584158651168</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.75812428551635</v>
+        <v>41.75812428551633</v>
       </c>
       <c r="S13" t="n">
-        <v>122.0271060561226</v>
+        <v>122.0271060561225</v>
       </c>
       <c r="T13" t="n">
-        <v>141.9814314141973</v>
+        <v>141.9814314141972</v>
       </c>
       <c r="U13" t="n">
         <v>205.4936100850322</v>
@@ -1607,7 +1607,7 @@
         <v>301.9748715999007</v>
       </c>
       <c r="C14" t="n">
-        <v>128.4778246640633</v>
+        <v>284.5139217074276</v>
       </c>
       <c r="D14" t="n">
         <v>273.924071557103</v>
@@ -1619,13 +1619,13 @@
         <v>326.1170756781315</v>
       </c>
       <c r="G14" t="n">
-        <v>331.8279204293739</v>
+        <v>19.19355962874033</v>
       </c>
       <c r="H14" t="n">
         <v>230.9021637362736</v>
       </c>
       <c r="I14" t="n">
-        <v>25.0142271841837</v>
+        <v>25.01422718418368</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.3737355047104</v>
+        <v>66.37373550471037</v>
       </c>
       <c r="T14" t="n">
         <v>130.4482591609531</v>
       </c>
       <c r="U14" t="n">
-        <v>170.3694150824821</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>246.993288406555</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>268.4819986538331</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>305.4789685924737</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.07301011835739</v>
+        <v>99.07301011835737</v>
       </c>
       <c r="C16" t="n">
-        <v>86.48785103504792</v>
+        <v>86.48785103504791</v>
       </c>
       <c r="D16" t="n">
-        <v>67.85650295463245</v>
+        <v>67.85650295463243</v>
       </c>
       <c r="E16" t="n">
-        <v>65.67499258298926</v>
+        <v>65.67499258298925</v>
       </c>
       <c r="F16" t="n">
-        <v>64.66207795935134</v>
+        <v>64.66207795935132</v>
       </c>
       <c r="G16" t="n">
-        <v>86.01377381710125</v>
+        <v>86.01377381710122</v>
       </c>
       <c r="H16" t="n">
-        <v>70.63698155961873</v>
+        <v>70.63698155961872</v>
       </c>
       <c r="I16" t="n">
-        <v>38.05584158651169</v>
+        <v>38.05584158651194</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.75812428551635</v>
+        <v>41.75812428551632</v>
       </c>
       <c r="S16" t="n">
         <v>122.0271060561226</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>263.6602915389853</v>
+        <v>263.6602915389854</v>
       </c>
       <c r="C17" t="n">
-        <v>246.1993416465123</v>
+        <v>246.1993416465124</v>
       </c>
       <c r="D17" t="n">
-        <v>235.6094914961877</v>
+        <v>235.6094914961878</v>
       </c>
       <c r="E17" t="n">
         <v>262.8568199477666</v>
       </c>
       <c r="F17" t="n">
-        <v>287.8024956172162</v>
+        <v>287.8024956172163</v>
       </c>
       <c r="G17" t="n">
         <v>293.5133403684586</v>
       </c>
       <c r="H17" t="n">
-        <v>192.5875836753583</v>
+        <v>192.5875836753584</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>28.05915544379506</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>92.13367910003774</v>
+        <v>92.13367910003781</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>132.0548350215668</v>
       </c>
       <c r="V17" t="n">
         <v>208.6787083456397</v>
@@ -1907,10 +1907,10 @@
         <v>230.1674185929178</v>
       </c>
       <c r="X17" t="n">
-        <v>192.3259272395374</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>88.33024766176533</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.75843005744206</v>
+        <v>60.75843005744214</v>
       </c>
       <c r="C19" t="n">
-        <v>48.17327097413259</v>
+        <v>48.17327097413268</v>
       </c>
       <c r="D19" t="n">
-        <v>29.54192289371711</v>
+        <v>29.5419228937172</v>
       </c>
       <c r="E19" t="n">
-        <v>27.36041252207393</v>
+        <v>27.36041252207401</v>
       </c>
       <c r="F19" t="n">
-        <v>26.347497898436</v>
+        <v>26.34749789843609</v>
       </c>
       <c r="G19" t="n">
-        <v>47.69919375618591</v>
+        <v>47.69919375618599</v>
       </c>
       <c r="H19" t="n">
-        <v>32.3224014987034</v>
+        <v>32.32240149870348</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.443544224601006</v>
+        <v>3.443544224601091</v>
       </c>
       <c r="S19" t="n">
-        <v>83.71252599520722</v>
+        <v>83.7125259952073</v>
       </c>
       <c r="T19" t="n">
-        <v>103.6668513532819</v>
+        <v>103.666851353282</v>
       </c>
       <c r="U19" t="n">
         <v>167.1790300241169</v>
@@ -2065,10 +2065,10 @@
         <v>167.4494482120958</v>
       </c>
       <c r="X19" t="n">
-        <v>106.6361052645419</v>
+        <v>106.636105264542</v>
       </c>
       <c r="Y19" t="n">
-        <v>99.51110322759955</v>
+        <v>99.51110322759963</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>263.6602915389853</v>
+        <v>263.6602915389854</v>
       </c>
       <c r="C20" t="n">
-        <v>246.1993416465123</v>
+        <v>246.1993416465124</v>
       </c>
       <c r="D20" t="n">
-        <v>28.71619518259977</v>
+        <v>235.6094914961878</v>
       </c>
       <c r="E20" t="n">
         <v>262.8568199477666</v>
       </c>
       <c r="F20" t="n">
-        <v>287.8024956172162</v>
+        <v>287.8024956172163</v>
       </c>
       <c r="G20" t="n">
-        <v>293.5133403684586</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>192.5875836753583</v>
+        <v>192.5875836753584</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>28.05915544379506</v>
+        <v>28.05915544379514</v>
       </c>
       <c r="T20" t="n">
-        <v>92.13367910003774</v>
+        <v>92.13367910003782</v>
       </c>
       <c r="U20" t="n">
         <v>132.0548350215668</v>
@@ -2144,10 +2144,10 @@
         <v>230.1674185929178</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>250.6575505539739</v>
       </c>
       <c r="Y20" t="n">
-        <v>267.1643885315584</v>
+        <v>103.1268820324547</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.937780393757489</v>
+        <v>9.937780393757109</v>
       </c>
       <c r="S21" t="n">
         <v>144.6923595985481</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.75843005744206</v>
+        <v>60.75843005744214</v>
       </c>
       <c r="C22" t="n">
-        <v>48.17327097413259</v>
+        <v>48.17327097413268</v>
       </c>
       <c r="D22" t="n">
-        <v>29.54192289371711</v>
+        <v>29.5419228937172</v>
       </c>
       <c r="E22" t="n">
-        <v>27.36041252207393</v>
+        <v>27.36041252207401</v>
       </c>
       <c r="F22" t="n">
-        <v>26.347497898436</v>
+        <v>26.34749789843609</v>
       </c>
       <c r="G22" t="n">
-        <v>47.69919375618591</v>
+        <v>47.69919375618599</v>
       </c>
       <c r="H22" t="n">
-        <v>32.3224014987034</v>
+        <v>32.32240149870348</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>3.443544224601006</v>
+        <v>3.443544224601091</v>
       </c>
       <c r="S22" t="n">
-        <v>83.71252599520722</v>
+        <v>83.7125259952073</v>
       </c>
       <c r="T22" t="n">
-        <v>103.6668513532819</v>
+        <v>103.666851353282</v>
       </c>
       <c r="U22" t="n">
         <v>167.1790300241169</v>
@@ -2302,10 +2302,10 @@
         <v>167.4494482120958</v>
       </c>
       <c r="X22" t="n">
-        <v>106.6361052645419</v>
+        <v>106.636105264542</v>
       </c>
       <c r="Y22" t="n">
-        <v>99.51110322759955</v>
+        <v>99.51110322759963</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>263.6602915389853</v>
+        <v>263.6602915389854</v>
       </c>
       <c r="C23" t="n">
-        <v>246.1993416465123</v>
+        <v>246.1993416465124</v>
       </c>
       <c r="D23" t="n">
-        <v>235.6094914961877</v>
+        <v>235.6094914961878</v>
       </c>
       <c r="E23" t="n">
         <v>262.8568199477666</v>
       </c>
       <c r="F23" t="n">
-        <v>287.8024956172162</v>
+        <v>287.8024956172163</v>
       </c>
       <c r="G23" t="n">
         <v>293.5133403684586</v>
       </c>
       <c r="H23" t="n">
-        <v>192.5875836753583</v>
+        <v>192.5875836753584</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>28.05915544379506</v>
+        <v>28.05915544379515</v>
       </c>
       <c r="T23" t="n">
-        <v>92.13367910003772</v>
+        <v>92.13367910003781</v>
       </c>
       <c r="U23" t="n">
         <v>132.0548350215668</v>
@@ -2381,7 +2381,7 @@
         <v>230.1674185929178</v>
       </c>
       <c r="X23" t="n">
-        <v>250.6575505539738</v>
+        <v>250.6575505539739</v>
       </c>
       <c r="Y23" t="n">
         <v>267.1643885315584</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>60.75843005744206</v>
+        <v>60.75843005744214</v>
       </c>
       <c r="C25" t="n">
-        <v>48.17327097413259</v>
+        <v>48.17327097413268</v>
       </c>
       <c r="D25" t="n">
-        <v>29.54192289371711</v>
+        <v>29.5419228937172</v>
       </c>
       <c r="E25" t="n">
-        <v>27.36041252207393</v>
+        <v>27.36041252207401</v>
       </c>
       <c r="F25" t="n">
-        <v>26.347497898436</v>
+        <v>26.34749789843609</v>
       </c>
       <c r="G25" t="n">
-        <v>47.69919375618591</v>
+        <v>47.69919375618599</v>
       </c>
       <c r="H25" t="n">
-        <v>32.3224014987034</v>
+        <v>32.32240149870348</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>3.443544224601006</v>
+        <v>3.443544224601091</v>
       </c>
       <c r="S25" t="n">
-        <v>83.71252599520722</v>
+        <v>83.7125259952073</v>
       </c>
       <c r="T25" t="n">
-        <v>103.6668513532819</v>
+        <v>103.666851353282</v>
       </c>
       <c r="U25" t="n">
         <v>167.1790300241169</v>
@@ -2539,10 +2539,10 @@
         <v>167.4494482120958</v>
       </c>
       <c r="X25" t="n">
-        <v>106.6361052645419</v>
+        <v>106.636105264542</v>
       </c>
       <c r="Y25" t="n">
-        <v>99.51110322759955</v>
+        <v>99.51110322759963</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>303.7538421541963</v>
       </c>
       <c r="C26" t="n">
-        <v>286.2928922617232</v>
+        <v>286.2928922617233</v>
       </c>
       <c r="D26" t="n">
         <v>275.7030421113986</v>
@@ -2573,7 +2573,7 @@
         <v>232.6811342905692</v>
       </c>
       <c r="I26" t="n">
-        <v>26.79319773847926</v>
+        <v>26.79319773847932</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>68.15270605900596</v>
+        <v>68.15270605900602</v>
       </c>
       <c r="T26" t="n">
-        <v>132.2272297152486</v>
+        <v>132.2272297152487</v>
       </c>
       <c r="U26" t="n">
-        <v>172.1483856367776</v>
+        <v>172.1483856367777</v>
       </c>
       <c r="V26" t="n">
         <v>248.7722589608506</v>
@@ -2621,7 +2621,7 @@
         <v>290.7511011691847</v>
       </c>
       <c r="Y26" t="n">
-        <v>307.2579391467692</v>
+        <v>307.2579391467693</v>
       </c>
     </row>
     <row r="27">
@@ -2713,25 +2713,25 @@
         <v>100.851980672653</v>
       </c>
       <c r="C28" t="n">
-        <v>88.26682158934349</v>
+        <v>88.26682158934355</v>
       </c>
       <c r="D28" t="n">
-        <v>69.63547350892802</v>
+        <v>69.63547350892807</v>
       </c>
       <c r="E28" t="n">
-        <v>25.04188194643515</v>
+        <v>67.45396313728489</v>
       </c>
       <c r="F28" t="n">
-        <v>66.4410485136469</v>
+        <v>66.44104851364696</v>
       </c>
       <c r="G28" t="n">
-        <v>87.79274437139681</v>
+        <v>87.79274437139688</v>
       </c>
       <c r="H28" t="n">
-        <v>72.4159521139143</v>
+        <v>72.41595211391436</v>
       </c>
       <c r="I28" t="n">
-        <v>39.83481214080727</v>
+        <v>39.83481214080732</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>43.53709483981191</v>
+        <v>43.53709483981196</v>
       </c>
       <c r="S28" t="n">
-        <v>123.8060766104181</v>
+        <v>123.8060766104182</v>
       </c>
       <c r="T28" t="n">
-        <v>143.7604019684928</v>
+        <v>143.7604019684929</v>
       </c>
       <c r="U28" t="n">
-        <v>207.2725806393277</v>
+        <v>207.2725806393278</v>
       </c>
       <c r="V28" t="n">
         <v>173.1576438145437</v>
@@ -2776,10 +2776,10 @@
         <v>207.5429988273067</v>
       </c>
       <c r="X28" t="n">
-        <v>146.7296558797528</v>
+        <v>104.3175746889017</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.6046538428104</v>
+        <v>139.6046538428105</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>303.7538421541963</v>
       </c>
       <c r="C29" t="n">
-        <v>286.2928922617232</v>
+        <v>286.2928922617233</v>
       </c>
       <c r="D29" t="n">
         <v>275.7030421113986</v>
@@ -2810,7 +2810,7 @@
         <v>232.6811342905692</v>
       </c>
       <c r="I29" t="n">
-        <v>26.79319773847926</v>
+        <v>26.79319773847932</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>68.15270605900596</v>
+        <v>68.15270605900602</v>
       </c>
       <c r="T29" t="n">
-        <v>132.2272297152486</v>
+        <v>132.2272297152487</v>
       </c>
       <c r="U29" t="n">
-        <v>172.1483856367776</v>
+        <v>172.1483856367777</v>
       </c>
       <c r="V29" t="n">
         <v>248.7722589608506</v>
@@ -2858,7 +2858,7 @@
         <v>290.7511011691847</v>
       </c>
       <c r="Y29" t="n">
-        <v>307.2579391467692</v>
+        <v>307.2579391467693</v>
       </c>
     </row>
     <row r="30">
@@ -2950,25 +2950,25 @@
         <v>100.851980672653</v>
       </c>
       <c r="C31" t="n">
-        <v>88.26682158934349</v>
+        <v>88.26682158934355</v>
       </c>
       <c r="D31" t="n">
-        <v>27.22339231807862</v>
+        <v>69.63547350892807</v>
       </c>
       <c r="E31" t="n">
-        <v>67.45396313728483</v>
+        <v>67.45396313728489</v>
       </c>
       <c r="F31" t="n">
-        <v>66.4410485136469</v>
+        <v>66.44104851364696</v>
       </c>
       <c r="G31" t="n">
-        <v>87.79274437139682</v>
+        <v>87.79274437139686</v>
       </c>
       <c r="H31" t="n">
-        <v>72.4159521139143</v>
+        <v>72.41595211391436</v>
       </c>
       <c r="I31" t="n">
-        <v>39.83481214080727</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>43.53709483981191</v>
+        <v>40.95982578976792</v>
       </c>
       <c r="S31" t="n">
-        <v>123.8060766104181</v>
+        <v>123.8060766104182</v>
       </c>
       <c r="T31" t="n">
-        <v>143.7604019684928</v>
+        <v>143.7604019684929</v>
       </c>
       <c r="U31" t="n">
-        <v>207.2725806393277</v>
+        <v>207.2725806393278</v>
       </c>
       <c r="V31" t="n">
         <v>173.1576438145437</v>
@@ -3013,10 +3013,10 @@
         <v>207.5429988273067</v>
       </c>
       <c r="X31" t="n">
-        <v>146.7296558797528</v>
+        <v>146.7296558797529</v>
       </c>
       <c r="Y31" t="n">
-        <v>139.6046538428104</v>
+        <v>139.6046538428105</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>230.9021637362736</v>
       </c>
       <c r="I32" t="n">
-        <v>25.01422718418367</v>
+        <v>25.01422718418368</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.37373550471037</v>
+        <v>66.37373550471038</v>
       </c>
       <c r="T32" t="n">
-        <v>130.448259160953</v>
+        <v>130.4482591609531</v>
       </c>
       <c r="U32" t="n">
-        <v>170.369415082482</v>
+        <v>170.3694150824821</v>
       </c>
       <c r="V32" t="n">
         <v>246.993288406555</v>
@@ -3095,7 +3095,7 @@
         <v>288.9721306148891</v>
       </c>
       <c r="Y32" t="n">
-        <v>305.4789685924736</v>
+        <v>305.4789685924737</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>98.20149690836232</v>
       </c>
       <c r="I33" t="n">
-        <v>39.3664391521176</v>
+        <v>39.36643915211759</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.937780393757109</v>
+        <v>9.937780393757095</v>
       </c>
       <c r="S33" t="n">
         <v>144.6923595985481</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.07301011835736</v>
+        <v>99.07301011835739</v>
       </c>
       <c r="C34" t="n">
-        <v>86.4878510350479</v>
+        <v>86.48785103504792</v>
       </c>
       <c r="D34" t="n">
-        <v>67.85650295463242</v>
+        <v>67.85650295463245</v>
       </c>
       <c r="E34" t="n">
-        <v>65.67499258298923</v>
+        <v>65.67499258298926</v>
       </c>
       <c r="F34" t="n">
-        <v>64.66207795935131</v>
+        <v>64.66207795935152</v>
       </c>
       <c r="G34" t="n">
-        <v>86.01377381710122</v>
+        <v>86.01377381710124</v>
       </c>
       <c r="H34" t="n">
-        <v>70.6369815596187</v>
+        <v>70.63698155961873</v>
       </c>
       <c r="I34" t="n">
-        <v>38.05584158651167</v>
+        <v>38.0558415865117</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.75812428551631</v>
+        <v>41.75812428551632</v>
       </c>
       <c r="S34" t="n">
         <v>122.0271060561225</v>
       </c>
       <c r="T34" t="n">
-        <v>141.9814314141972</v>
+        <v>141.9814314141973</v>
       </c>
       <c r="U34" t="n">
-        <v>205.4936100850321</v>
+        <v>205.4936100850322</v>
       </c>
       <c r="V34" t="n">
         <v>171.3786732602481</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>301.9748715999006</v>
+        <v>301.9748715999007</v>
       </c>
       <c r="C35" t="n">
         <v>284.5139217074276</v>
@@ -3272,19 +3272,19 @@
         <v>273.924071557103</v>
       </c>
       <c r="E35" t="n">
-        <v>301.1714000086818</v>
+        <v>301.1714000086819</v>
       </c>
       <c r="F35" t="n">
         <v>326.1170756781315</v>
       </c>
       <c r="G35" t="n">
-        <v>331.8279204293738</v>
+        <v>331.8279204293739</v>
       </c>
       <c r="H35" t="n">
         <v>230.9021637362736</v>
       </c>
       <c r="I35" t="n">
-        <v>25.01422718418367</v>
+        <v>25.0142271841837</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.37373550471035</v>
+        <v>66.3737355047104</v>
       </c>
       <c r="T35" t="n">
-        <v>130.448259160953</v>
+        <v>130.4482591609531</v>
       </c>
       <c r="U35" t="n">
-        <v>170.369415082482</v>
+        <v>170.3694150824821</v>
       </c>
       <c r="V35" t="n">
-        <v>246.9932884065549</v>
+        <v>246.993288406555</v>
       </c>
       <c r="W35" t="n">
-        <v>268.481998653833</v>
+        <v>268.4819986538331</v>
       </c>
       <c r="X35" t="n">
         <v>288.9721306148891</v>
       </c>
       <c r="Y35" t="n">
-        <v>305.4789685924736</v>
+        <v>305.4789685924737</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>98.20149690836232</v>
       </c>
       <c r="I36" t="n">
-        <v>39.36643915211761</v>
+        <v>39.3664391521176</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.937780393757123</v>
+        <v>9.937780393757109</v>
       </c>
       <c r="S36" t="n">
         <v>144.6923595985481</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>99.07301011835735</v>
+        <v>99.07301011835739</v>
       </c>
       <c r="C37" t="n">
-        <v>86.48785103504788</v>
+        <v>86.48785103504792</v>
       </c>
       <c r="D37" t="n">
-        <v>67.8565029546324</v>
+        <v>67.85650295463245</v>
       </c>
       <c r="E37" t="n">
-        <v>65.67499258298922</v>
+        <v>65.67499258298926</v>
       </c>
       <c r="F37" t="n">
-        <v>64.66207795935129</v>
+        <v>64.66207795935134</v>
       </c>
       <c r="G37" t="n">
-        <v>86.01377381710121</v>
+        <v>86.01377381710124</v>
       </c>
       <c r="H37" t="n">
-        <v>70.63698155961869</v>
+        <v>70.63698155961873</v>
       </c>
       <c r="I37" t="n">
-        <v>38.05584158651166</v>
+        <v>38.0558415865117</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.7581242855163</v>
+        <v>41.75812428551634</v>
       </c>
       <c r="S37" t="n">
-        <v>122.0271060561225</v>
+        <v>122.0271060561226</v>
       </c>
       <c r="T37" t="n">
-        <v>141.9814314141972</v>
+        <v>141.9814314141973</v>
       </c>
       <c r="U37" t="n">
-        <v>205.4936100850321</v>
+        <v>205.4936100850322</v>
       </c>
       <c r="V37" t="n">
-        <v>171.378673260248</v>
+        <v>171.3786732602481</v>
       </c>
       <c r="W37" t="n">
-        <v>205.764028273011</v>
+        <v>205.7640282730111</v>
       </c>
       <c r="X37" t="n">
         <v>144.9506853254572</v>
       </c>
       <c r="Y37" t="n">
-        <v>137.8256832885148</v>
+        <v>137.8256832885149</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>301.9748715999006</v>
+        <v>301.9748715999007</v>
       </c>
       <c r="C38" t="n">
-        <v>284.5139217074275</v>
+        <v>284.5139217074276</v>
       </c>
       <c r="D38" t="n">
-        <v>273.9240715571029</v>
+        <v>273.924071557103</v>
       </c>
       <c r="E38" t="n">
-        <v>301.1714000086818</v>
+        <v>301.1714000086819</v>
       </c>
       <c r="F38" t="n">
-        <v>326.1170756781314</v>
+        <v>326.1170756781315</v>
       </c>
       <c r="G38" t="n">
-        <v>331.8279204293738</v>
+        <v>331.8279204293739</v>
       </c>
       <c r="H38" t="n">
-        <v>230.9021637362735</v>
+        <v>230.9021637362736</v>
       </c>
       <c r="I38" t="n">
-        <v>25.0142271841836</v>
+        <v>25.01422718418371</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.3737355047103</v>
+        <v>66.37373550471042</v>
       </c>
       <c r="T38" t="n">
-        <v>130.4482591609529</v>
+        <v>130.4482591609531</v>
       </c>
       <c r="U38" t="n">
-        <v>170.369415082482</v>
+        <v>170.3694150824821</v>
       </c>
       <c r="V38" t="n">
-        <v>246.9932884065549</v>
+        <v>246.993288406555</v>
       </c>
       <c r="W38" t="n">
-        <v>268.481998653833</v>
+        <v>268.4819986538331</v>
       </c>
       <c r="X38" t="n">
-        <v>288.972130614889</v>
+        <v>288.9721306148891</v>
       </c>
       <c r="Y38" t="n">
-        <v>305.4789685924736</v>
+        <v>305.4789685924737</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>99.07301011835729</v>
+        <v>99.0730101183574</v>
       </c>
       <c r="C40" t="n">
-        <v>86.48785103504783</v>
+        <v>86.48785103504794</v>
       </c>
       <c r="D40" t="n">
-        <v>67.85650295463235</v>
+        <v>67.85650295463246</v>
       </c>
       <c r="E40" t="n">
-        <v>65.67499258298916</v>
+        <v>65.67499258298928</v>
       </c>
       <c r="F40" t="n">
-        <v>64.66207795935124</v>
+        <v>64.66207795935135</v>
       </c>
       <c r="G40" t="n">
-        <v>86.01377381710114</v>
+        <v>86.01377381710125</v>
       </c>
       <c r="H40" t="n">
-        <v>70.63698155961863</v>
+        <v>70.63698155961875</v>
       </c>
       <c r="I40" t="n">
-        <v>38.0558415865116</v>
+        <v>38.05584158651171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.75812428551624</v>
+        <v>41.75812428551635</v>
       </c>
       <c r="S40" t="n">
-        <v>122.0271060561224</v>
+        <v>122.0271060561226</v>
       </c>
       <c r="T40" t="n">
-        <v>141.9814314141971</v>
+        <v>141.9814314141973</v>
       </c>
       <c r="U40" t="n">
-        <v>205.4936100850321</v>
+        <v>205.4936100850322</v>
       </c>
       <c r="V40" t="n">
-        <v>171.378673260248</v>
+        <v>171.3786732602481</v>
       </c>
       <c r="W40" t="n">
-        <v>205.764028273011</v>
+        <v>205.7640282730111</v>
       </c>
       <c r="X40" t="n">
-        <v>144.9506853254571</v>
+        <v>144.9506853254572</v>
       </c>
       <c r="Y40" t="n">
-        <v>137.8256832885148</v>
+        <v>137.8256832885149</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>230.9021637362736</v>
       </c>
       <c r="I41" t="n">
-        <v>25.01422718418368</v>
+        <v>25.0142271841837</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.37373550471038</v>
+        <v>66.3737355047104</v>
       </c>
       <c r="T41" t="n">
         <v>130.4482591609531</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>99.07301011835737</v>
+        <v>99.07301011835739</v>
       </c>
       <c r="C43" t="n">
-        <v>86.48785103504791</v>
+        <v>86.48785103504792</v>
       </c>
       <c r="D43" t="n">
-        <v>67.85650295463243</v>
+        <v>67.85650295463245</v>
       </c>
       <c r="E43" t="n">
-        <v>65.67499258298925</v>
+        <v>65.67499258298926</v>
       </c>
       <c r="F43" t="n">
-        <v>64.66207795935132</v>
+        <v>64.66207795935134</v>
       </c>
       <c r="G43" t="n">
         <v>86.01377381710124</v>
       </c>
       <c r="H43" t="n">
-        <v>70.63698155961872</v>
+        <v>70.63698155961873</v>
       </c>
       <c r="I43" t="n">
-        <v>38.05584158651168</v>
+        <v>38.0558415865117</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.75812428551633</v>
+        <v>41.75812428551634</v>
       </c>
       <c r="S43" t="n">
-        <v>122.0271060561225</v>
+        <v>122.0271060561226</v>
       </c>
       <c r="T43" t="n">
-        <v>141.9814314141972</v>
+        <v>141.9814314141973</v>
       </c>
       <c r="U43" t="n">
         <v>205.4936100850322</v>
@@ -3995,7 +3995,7 @@
         <v>230.9021637362736</v>
       </c>
       <c r="I44" t="n">
-        <v>25.01422718418368</v>
+        <v>25.01422718418367</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.37373550471038</v>
+        <v>66.37373550471035</v>
       </c>
       <c r="T44" t="n">
         <v>130.4482591609531</v>
@@ -4037,7 +4037,7 @@
         <v>246.993288406555</v>
       </c>
       <c r="W44" t="n">
-        <v>268.4819986538322</v>
+        <v>268.4819986538331</v>
       </c>
       <c r="X44" t="n">
         <v>288.9721306148891</v>
@@ -4074,7 +4074,7 @@
         <v>98.20149690836232</v>
       </c>
       <c r="I45" t="n">
-        <v>39.3664391521176</v>
+        <v>39.36643915211759</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.937780393757109</v>
+        <v>9.937780393757095</v>
       </c>
       <c r="S45" t="n">
         <v>144.6923595985481</v>
@@ -4147,7 +4147,7 @@
         <v>64.66207795935132</v>
       </c>
       <c r="G46" t="n">
-        <v>86.01377381710122</v>
+        <v>86.01377381710124</v>
       </c>
       <c r="H46" t="n">
         <v>70.63698155961872</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.75812428551632</v>
+        <v>41.75812428551631</v>
       </c>
       <c r="S46" t="n">
-        <v>122.0271060561226</v>
+        <v>122.0271060561225</v>
       </c>
       <c r="T46" t="n">
         <v>141.9814314141973</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="F8" t="n">
-        <v>14.44108515774386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="G8" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H8" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="I8" t="n">
-        <v>7.495584408540386</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L8" t="n">
-        <v>14.16465422792556</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M8" t="n">
+        <v>7.082327113962777</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13.8896123982571</v>
+      </c>
+      <c r="O8" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="N8" t="n">
-        <v>20.69689768255142</v>
-      </c>
-      <c r="O8" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="P8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="X8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.38658590694733</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="9">
@@ -4863,19 +4863,19 @@
         <v>20.55868221764227</v>
       </c>
       <c r="D9" t="n">
-        <v>15.19521781052957</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E9" t="n">
         <v>15.19521781052957</v>
       </c>
       <c r="F9" t="n">
-        <v>15.19521781052957</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="G9" t="n">
-        <v>8.2497170613261</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="H9" t="n">
-        <v>8.2497170613261</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="I9" t="n">
         <v>1.304216312122629</v>
@@ -4887,37 +4887,37 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L9" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M9" t="n">
-        <v>7.082327113962777</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N9" t="n">
-        <v>7.082327113962777</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O9" t="n">
-        <v>13.8896123982571</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P9" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q9" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W9" t="n">
         <v>20.55868221764227</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5500836593369149</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5500836593369149</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5500836593369149</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5500836593369149</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5500836593369149</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="K10" t="n">
         <v>0.5500836593369149</v>
@@ -4984,28 +4984,28 @@
         <v>17.80975218218115</v>
       </c>
       <c r="R10" t="n">
-        <v>10.86425143297768</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="S10" t="n">
-        <v>3.91875068377421</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5500836593369149</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="U10" t="n">
-        <v>0.5500836593369149</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5500836593369149</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5500836593369149</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="X10" t="n">
-        <v>0.5500836593369149</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.5500836593369149</v>
+        <v>17.80975218218115</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1539.399379248497</v>
+        <v>1843.612914610802</v>
       </c>
       <c r="C11" t="n">
-        <v>1252.011579544025</v>
+        <v>1556.22511490633</v>
       </c>
       <c r="D11" t="n">
-        <v>975.3205981732135</v>
+        <v>1279.534133535519</v>
       </c>
       <c r="E11" t="n">
-        <v>975.3205981732135</v>
+        <v>975.3205981732136</v>
       </c>
       <c r="F11" t="n">
-        <v>645.9094106195453</v>
+        <v>645.9094106195454</v>
       </c>
       <c r="G11" t="n">
-        <v>310.7296930141172</v>
+        <v>310.7296930141171</v>
       </c>
       <c r="H11" t="n">
-        <v>77.49518418959835</v>
+        <v>77.49518418959829</v>
       </c>
       <c r="I11" t="n">
         <v>52.22828804395821</v>
@@ -5042,49 +5042,49 @@
         <v>101.1919225494054</v>
       </c>
       <c r="K11" t="n">
-        <v>544.344252004337</v>
+        <v>546.2181948516368</v>
       </c>
       <c r="L11" t="n">
-        <v>735.2307198473873</v>
+        <v>755.7536253376707</v>
       </c>
       <c r="M11" t="n">
-        <v>979.2981326516333</v>
+        <v>999.8210381419167</v>
       </c>
       <c r="N11" t="n">
-        <v>1231.928619738509</v>
+        <v>1252.451525228792</v>
       </c>
       <c r="O11" t="n">
-        <v>1834.137343140111</v>
+        <v>1854.660248630395</v>
       </c>
       <c r="P11" t="n">
-        <v>2310.434173064618</v>
+        <v>2330.957078554901</v>
       </c>
       <c r="Q11" t="n">
-        <v>2590.891496707627</v>
+        <v>2611.41440219791</v>
       </c>
       <c r="R11" t="n">
         <v>2611.41440219791</v>
       </c>
       <c r="S11" t="n">
-        <v>2544.370224920425</v>
+        <v>2611.41440219791</v>
       </c>
       <c r="T11" t="n">
-        <v>2412.604306576028</v>
+        <v>2479.648483853513</v>
       </c>
       <c r="U11" t="n">
-        <v>2240.513988310895</v>
+        <v>2398.126207546616</v>
       </c>
       <c r="V11" t="n">
-        <v>1991.025818203263</v>
+        <v>2148.638037438985</v>
       </c>
       <c r="W11" t="n">
-        <v>1991.025818203263</v>
+        <v>2148.638037438985</v>
       </c>
       <c r="X11" t="n">
-        <v>1847.96399398837</v>
+        <v>2148.638037438985</v>
       </c>
       <c r="Y11" t="n">
-        <v>1539.399379248497</v>
+        <v>2148.638037438985</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>957.6082924505959</v>
+        <v>957.6082924505956</v>
       </c>
       <c r="C12" t="n">
-        <v>783.1552631694689</v>
+        <v>783.1552631694686</v>
       </c>
       <c r="D12" t="n">
-        <v>634.2208535082177</v>
+        <v>634.2208535082174</v>
       </c>
       <c r="E12" t="n">
-        <v>474.9833985027622</v>
+        <v>474.9833985027619</v>
       </c>
       <c r="F12" t="n">
-        <v>328.4488405296472</v>
+        <v>328.4488405296469</v>
       </c>
       <c r="G12" t="n">
-        <v>191.1857992161604</v>
+        <v>191.1857992161599</v>
       </c>
       <c r="H12" t="n">
-        <v>91.9923679955923</v>
+        <v>91.99236799559215</v>
       </c>
       <c r="I12" t="n">
         <v>52.22828804395821</v>
       </c>
       <c r="J12" t="n">
-        <v>62.57284636393287</v>
+        <v>187.4029713509376</v>
       </c>
       <c r="K12" t="n">
-        <v>158.4081689147015</v>
+        <v>545.0588785441591</v>
       </c>
       <c r="L12" t="n">
-        <v>700.7250699031632</v>
+        <v>809.4891794528111</v>
       </c>
       <c r="M12" t="n">
-        <v>1273.867062771322</v>
+        <v>1455.814243996794</v>
       </c>
       <c r="N12" t="n">
-        <v>1517.988201135306</v>
+        <v>1699.935382360777</v>
       </c>
       <c r="O12" t="n">
-        <v>2109.015250688024</v>
+        <v>1901.038735829533</v>
       </c>
       <c r="P12" t="n">
-        <v>2566.363496141784</v>
+        <v>2358.386981283293</v>
       </c>
       <c r="Q12" t="n">
         <v>2611.41440219791</v>
@@ -5145,10 +5145,10 @@
         <v>2601.376240184014</v>
       </c>
       <c r="S12" t="n">
-        <v>2455.222341599623</v>
+        <v>2455.222341599622</v>
       </c>
       <c r="T12" t="n">
-        <v>2258.951946921029</v>
+        <v>2258.951946921028</v>
       </c>
       <c r="U12" t="n">
         <v>2030.824893401095</v>
@@ -5157,7 +5157,7 @@
         <v>1795.672785169352</v>
       </c>
       <c r="W12" t="n">
-        <v>1541.435428441151</v>
+        <v>1541.43542844115</v>
       </c>
       <c r="X12" t="n">
         <v>1333.583928235618</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>536.4586127866378</v>
+        <v>536.4586127866374</v>
       </c>
       <c r="C13" t="n">
-        <v>449.0971470946702</v>
+        <v>449.0971470946699</v>
       </c>
       <c r="D13" t="n">
-        <v>380.5552249182737</v>
+        <v>380.5552249182735</v>
       </c>
       <c r="E13" t="n">
-        <v>314.2168485718199</v>
+        <v>314.2168485718197</v>
       </c>
       <c r="F13" t="n">
-        <v>248.901618309849</v>
+        <v>248.9016183098487</v>
       </c>
       <c r="G13" t="n">
-        <v>162.0190184945949</v>
+        <v>162.0190184945948</v>
       </c>
       <c r="H13" t="n">
-        <v>90.66853207073764</v>
+        <v>90.66853207073748</v>
       </c>
       <c r="I13" t="n">
         <v>52.22828804395821</v>
@@ -5203,10 +5203,10 @@
         <v>323.0480639967852</v>
       </c>
       <c r="L13" t="n">
-        <v>609.6207763996181</v>
+        <v>609.6207763996176</v>
       </c>
       <c r="M13" t="n">
-        <v>917.8145040446582</v>
+        <v>917.8145040446577</v>
       </c>
       <c r="N13" t="n">
         <v>1226.015755239913</v>
@@ -5215,13 +5215,13 @@
         <v>1500.776539114133</v>
       </c>
       <c r="P13" t="n">
-        <v>1723.900336316502</v>
+        <v>1723.900336316501</v>
       </c>
       <c r="Q13" t="n">
         <v>1819.541796732554</v>
       </c>
       <c r="R13" t="n">
-        <v>1777.361873211831</v>
+        <v>1777.36187321183</v>
       </c>
       <c r="S13" t="n">
         <v>1654.102170124838</v>
@@ -5236,13 +5236,13 @@
         <v>1130.007508751628</v>
       </c>
       <c r="W13" t="n">
-        <v>922.165055950607</v>
+        <v>922.1650559506069</v>
       </c>
       <c r="X13" t="n">
-        <v>775.7502222885289</v>
+        <v>775.7502222885288</v>
       </c>
       <c r="Y13" t="n">
-        <v>636.5323603809381</v>
+        <v>636.5323603809378</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1686.000695375081</v>
+        <v>1527.820630973798</v>
       </c>
       <c r="C14" t="n">
-        <v>1556.22511490633</v>
+        <v>1240.432831269326</v>
       </c>
       <c r="D14" t="n">
-        <v>1279.534133535519</v>
+        <v>963.7418498985146</v>
       </c>
       <c r="E14" t="n">
-        <v>975.3205981732139</v>
+        <v>659.5283145362098</v>
       </c>
       <c r="F14" t="n">
-        <v>645.9094106195455</v>
+        <v>330.1171269825418</v>
       </c>
       <c r="G14" t="n">
         <v>310.7296930141171</v>
       </c>
       <c r="H14" t="n">
-        <v>77.49518418959831</v>
+        <v>77.49518418959829</v>
       </c>
       <c r="I14" t="n">
         <v>52.22828804395821</v>
@@ -5279,19 +5279,19 @@
         <v>101.1919225494054</v>
       </c>
       <c r="K14" t="n">
-        <v>546.2181948516368</v>
+        <v>225.3142364061837</v>
       </c>
       <c r="L14" t="n">
-        <v>1150.589265099633</v>
+        <v>829.6853066541798</v>
       </c>
       <c r="M14" t="n">
-        <v>1394.656677903879</v>
+        <v>1476.010371198163</v>
       </c>
       <c r="N14" t="n">
-        <v>1647.287164990755</v>
+        <v>2122.335435742146</v>
       </c>
       <c r="O14" t="n">
-        <v>2249.495888392357</v>
+        <v>2383.432810473468</v>
       </c>
       <c r="P14" t="n">
         <v>2541.148919308207</v>
@@ -5309,19 +5309,19 @@
         <v>2412.604306576028</v>
       </c>
       <c r="U14" t="n">
-        <v>2240.513988310895</v>
+        <v>2412.604306576028</v>
       </c>
       <c r="V14" t="n">
-        <v>1991.025818203263</v>
+        <v>2412.604306576028</v>
       </c>
       <c r="W14" t="n">
-        <v>1991.025818203263</v>
+        <v>2141.410368541853</v>
       </c>
       <c r="X14" t="n">
-        <v>1991.025818203263</v>
+        <v>2141.410368541853</v>
       </c>
       <c r="Y14" t="n">
-        <v>1991.025818203263</v>
+        <v>1832.845753801981</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>957.6082924505954</v>
+        <v>957.6082924505949</v>
       </c>
       <c r="C15" t="n">
-        <v>783.1552631694684</v>
+        <v>783.155263169468</v>
       </c>
       <c r="D15" t="n">
-        <v>634.2208535082173</v>
+        <v>634.2208535082168</v>
       </c>
       <c r="E15" t="n">
-        <v>474.9833985027617</v>
+        <v>474.9833985027612</v>
       </c>
       <c r="F15" t="n">
-        <v>328.4488405296468</v>
+        <v>328.4488405296463</v>
       </c>
       <c r="G15" t="n">
-        <v>191.1857992161603</v>
+        <v>191.1857992161601</v>
       </c>
       <c r="H15" t="n">
-        <v>91.9923679955923</v>
+        <v>91.99236799559213</v>
       </c>
       <c r="I15" t="n">
         <v>52.22828804395821</v>
@@ -5358,22 +5358,22 @@
         <v>62.57284636393287</v>
       </c>
       <c r="K15" t="n">
-        <v>158.4081689147015</v>
+        <v>420.2287535571543</v>
       </c>
       <c r="L15" t="n">
-        <v>540.6162130008776</v>
+        <v>962.5456545456161</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.94127754486</v>
+        <v>1186.335107091268</v>
       </c>
       <c r="N15" t="n">
-        <v>1833.266342088843</v>
+        <v>1832.660171635251</v>
       </c>
       <c r="O15" t="n">
-        <v>2424.293391641561</v>
+        <v>2033.763525104006</v>
       </c>
       <c r="P15" t="n">
-        <v>2566.363496141784</v>
+        <v>2491.111770557766</v>
       </c>
       <c r="Q15" t="n">
         <v>2611.41440219791</v>
@@ -5382,13 +5382,13 @@
         <v>2601.376240184014</v>
       </c>
       <c r="S15" t="n">
-        <v>2455.222341599623</v>
+        <v>2455.222341599622</v>
       </c>
       <c r="T15" t="n">
         <v>2258.951946921028</v>
       </c>
       <c r="U15" t="n">
-        <v>2030.824893401095</v>
+        <v>2030.824893401094</v>
       </c>
       <c r="V15" t="n">
         <v>1795.672785169352</v>
@@ -5413,22 +5413,22 @@
         <v>536.4586127866376</v>
       </c>
       <c r="C16" t="n">
-        <v>449.0971470946699</v>
+        <v>449.09714709467</v>
       </c>
       <c r="D16" t="n">
-        <v>380.5552249182735</v>
+        <v>380.5552249182736</v>
       </c>
       <c r="E16" t="n">
-        <v>314.2168485718197</v>
+        <v>314.2168485718198</v>
       </c>
       <c r="F16" t="n">
-        <v>248.9016183098487</v>
+        <v>248.9016183098488</v>
       </c>
       <c r="G16" t="n">
-        <v>162.0190184945949</v>
+        <v>162.0190184945952</v>
       </c>
       <c r="H16" t="n">
-        <v>90.6685320707377</v>
+        <v>90.66853207073794</v>
       </c>
       <c r="I16" t="n">
         <v>52.22828804395821</v>
@@ -5449,7 +5449,7 @@
         <v>1226.015755239913</v>
       </c>
       <c r="O16" t="n">
-        <v>1500.776539114132</v>
+        <v>1500.776539114133</v>
       </c>
       <c r="P16" t="n">
         <v>1723.900336316501</v>
@@ -5498,13 +5498,13 @@
         <v>1099.460853305372</v>
       </c>
       <c r="E17" t="n">
-        <v>833.9489139641937</v>
+        <v>833.9489139641939</v>
       </c>
       <c r="F17" t="n">
         <v>543.2393224316522</v>
       </c>
       <c r="G17" t="n">
-        <v>246.7612008473504</v>
+        <v>246.7612008473505</v>
       </c>
       <c r="H17" t="n">
         <v>52.22828804395821</v>
@@ -5513,52 +5513,52 @@
         <v>52.22828804395821</v>
       </c>
       <c r="J17" t="n">
-        <v>268.5975715697584</v>
+        <v>101.1919225494054</v>
       </c>
       <c r="K17" t="n">
-        <v>713.6238438719899</v>
+        <v>546.2181948516368</v>
       </c>
       <c r="L17" t="n">
-        <v>904.5103117150402</v>
+        <v>1150.589265099633</v>
       </c>
       <c r="M17" t="n">
-        <v>1148.577724519286</v>
+        <v>1394.656677903879</v>
       </c>
       <c r="N17" t="n">
-        <v>1401.208211606162</v>
+        <v>1647.287164990755</v>
       </c>
       <c r="O17" t="n">
-        <v>1834.137343140111</v>
+        <v>1872.503708942239</v>
       </c>
       <c r="P17" t="n">
-        <v>2310.434173064618</v>
+        <v>2348.800538866746</v>
       </c>
       <c r="Q17" t="n">
-        <v>2590.891496707627</v>
+        <v>2611.41440219791</v>
       </c>
       <c r="R17" t="n">
         <v>2611.41440219791</v>
       </c>
       <c r="S17" t="n">
-        <v>2583.071820941552</v>
+        <v>2611.41440219791</v>
       </c>
       <c r="T17" t="n">
-        <v>2490.007498618282</v>
+        <v>2518.35007987464</v>
       </c>
       <c r="U17" t="n">
-        <v>2490.007498618282</v>
+        <v>2384.961357630633</v>
       </c>
       <c r="V17" t="n">
-        <v>2279.220924531777</v>
+        <v>2174.174783544128</v>
       </c>
       <c r="W17" t="n">
-        <v>2046.728582518728</v>
+        <v>1941.68244153108</v>
       </c>
       <c r="X17" t="n">
-        <v>1852.459969145458</v>
+        <v>1941.68244153108</v>
       </c>
       <c r="Y17" t="n">
-        <v>1852.459969145458</v>
+        <v>1852.459969145459</v>
       </c>
     </row>
     <row r="18">
@@ -5601,7 +5601,7 @@
         <v>1087.375779532621</v>
       </c>
       <c r="M18" t="n">
-        <v>1311.165232078273</v>
+        <v>1455.814243996793</v>
       </c>
       <c r="N18" t="n">
         <v>1699.935382360777</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.8087926330986</v>
+        <v>265.8087926330991</v>
       </c>
       <c r="C19" t="n">
-        <v>217.1489229622576</v>
+        <v>217.148922962258</v>
       </c>
       <c r="D19" t="n">
-        <v>187.3085968069878</v>
+        <v>187.3085968069881</v>
       </c>
       <c r="E19" t="n">
-        <v>159.6718164816606</v>
+        <v>159.6718164816608</v>
       </c>
       <c r="F19" t="n">
-        <v>133.0581822408161</v>
+        <v>133.0581822408163</v>
       </c>
       <c r="G19" t="n">
-        <v>84.87717844668892</v>
+        <v>84.877178446689</v>
       </c>
       <c r="H19" t="n">
         <v>52.22828804395821</v>
       </c>
       <c r="I19" t="n">
-        <v>52.22828804395821</v>
+        <v>52.48443913361773</v>
       </c>
       <c r="J19" t="n">
-        <v>65.7175140844148</v>
+        <v>65.71751408441571</v>
       </c>
       <c r="K19" t="n">
-        <v>183.7921618307714</v>
+        <v>183.7921618307723</v>
       </c>
       <c r="L19" t="n">
-        <v>390.4134938706597</v>
+        <v>390.4134938706606</v>
       </c>
       <c r="M19" t="n">
-        <v>618.6558411527558</v>
+        <v>618.6558411527567</v>
       </c>
       <c r="N19" t="n">
-        <v>846.9057119850668</v>
+        <v>846.9057119850677</v>
       </c>
       <c r="O19" t="n">
-        <v>1041.715115496343</v>
+        <v>1041.715115496344</v>
       </c>
       <c r="P19" t="n">
-        <v>1184.887532335767</v>
+        <v>1184.887532335768</v>
       </c>
       <c r="Q19" t="n">
-        <v>1200.577612388876</v>
+        <v>1200.577612388877</v>
       </c>
       <c r="R19" t="n">
         <v>1197.099284889279</v>
       </c>
       <c r="S19" t="n">
-        <v>1112.541177823413</v>
+        <v>1112.541177823414</v>
       </c>
       <c r="T19" t="n">
-        <v>1007.827186557471</v>
+        <v>1007.827186557472</v>
       </c>
       <c r="U19" t="n">
-        <v>838.9594794624038</v>
+        <v>838.9594794624046</v>
       </c>
       <c r="V19" t="n">
-        <v>704.5513045135829</v>
+        <v>704.5513045135835</v>
       </c>
       <c r="W19" t="n">
-        <v>535.4104477336881</v>
+        <v>535.4104477336888</v>
       </c>
       <c r="X19" t="n">
-        <v>427.6972100927367</v>
+        <v>427.6972100927372</v>
       </c>
       <c r="Y19" t="n">
-        <v>327.1809442062724</v>
+        <v>327.180944206273</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1377.15331474892</v>
+        <v>1289.658320754101</v>
       </c>
       <c r="C20" t="n">
-        <v>1128.467111065574</v>
+        <v>1040.972117070755</v>
       </c>
       <c r="D20" t="n">
-        <v>1099.460853305372</v>
+        <v>802.9827317210706</v>
       </c>
       <c r="E20" t="n">
-        <v>833.9489139641935</v>
+        <v>537.4707923798923</v>
       </c>
       <c r="F20" t="n">
-        <v>543.2393224316519</v>
+        <v>246.7612008473505</v>
       </c>
       <c r="G20" t="n">
-        <v>246.7612008473504</v>
+        <v>246.7612008473505</v>
       </c>
       <c r="H20" t="n">
         <v>52.22828804395821</v>
@@ -5750,28 +5750,28 @@
         <v>52.22828804395821</v>
       </c>
       <c r="J20" t="n">
-        <v>119.840885192389</v>
+        <v>216.9291764959181</v>
       </c>
       <c r="K20" t="n">
-        <v>564.8671574946204</v>
+        <v>341.0514903526965</v>
       </c>
       <c r="L20" t="n">
-        <v>755.7536253376707</v>
+        <v>945.4225606006926</v>
       </c>
       <c r="M20" t="n">
-        <v>999.8210381419167</v>
+        <v>1189.489973404939</v>
       </c>
       <c r="N20" t="n">
-        <v>1252.451525228792</v>
+        <v>1442.120460491814</v>
       </c>
       <c r="O20" t="n">
-        <v>1854.660248630395</v>
+        <v>2044.329183893416</v>
       </c>
       <c r="P20" t="n">
-        <v>2330.957078554901</v>
+        <v>2520.626013817923</v>
       </c>
       <c r="Q20" t="n">
-        <v>2611.41440219791</v>
+        <v>2590.891496707627</v>
       </c>
       <c r="R20" t="n">
         <v>2611.41440219791</v>
@@ -5780,7 +5780,7 @@
         <v>2583.071820941552</v>
       </c>
       <c r="T20" t="n">
-        <v>2490.007498618282</v>
+        <v>2490.007498618281</v>
       </c>
       <c r="U20" t="n">
         <v>2356.618776374275</v>
@@ -5789,13 +5789,13 @@
         <v>2145.83220228777</v>
       </c>
       <c r="W20" t="n">
-        <v>1913.339860274722</v>
+        <v>1913.339860274721</v>
       </c>
       <c r="X20" t="n">
-        <v>1913.339860274722</v>
+        <v>1660.150415270707</v>
       </c>
       <c r="Y20" t="n">
-        <v>1643.476841555976</v>
+        <v>1555.981847561157</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>52.22828804395821</v>
       </c>
       <c r="J21" t="n">
-        <v>62.57284636393287</v>
+        <v>187.4029713509376</v>
       </c>
       <c r="K21" t="n">
-        <v>158.4081689147015</v>
+        <v>545.0588785441591</v>
       </c>
       <c r="L21" t="n">
-        <v>540.6162130008776</v>
+        <v>842.1010953671796</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.94127754486</v>
+        <v>1065.890547912831</v>
       </c>
       <c r="N21" t="n">
-        <v>1833.266342088843</v>
+        <v>1310.011686276815</v>
       </c>
       <c r="O21" t="n">
-        <v>2424.293391641561</v>
+        <v>1901.038735829532</v>
       </c>
       <c r="P21" t="n">
-        <v>2566.363496141784</v>
+        <v>2358.386981283293</v>
       </c>
       <c r="Q21" t="n">
         <v>2611.41440219791</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.8087926330986</v>
+        <v>265.8087926330991</v>
       </c>
       <c r="C22" t="n">
-        <v>217.1489229622576</v>
+        <v>217.148922962258</v>
       </c>
       <c r="D22" t="n">
-        <v>187.3085968069878</v>
+        <v>187.3085968069881</v>
       </c>
       <c r="E22" t="n">
-        <v>159.6718164816606</v>
+        <v>159.6718164816608</v>
       </c>
       <c r="F22" t="n">
-        <v>133.0581822408161</v>
+        <v>133.0581822408163</v>
       </c>
       <c r="G22" t="n">
-        <v>84.87717844668892</v>
+        <v>84.877178446689</v>
       </c>
       <c r="H22" t="n">
         <v>52.22828804395821</v>
       </c>
       <c r="I22" t="n">
-        <v>52.4844391336178</v>
+        <v>52.48443913361773</v>
       </c>
       <c r="J22" t="n">
-        <v>65.7175140844148</v>
+        <v>65.71751408441571</v>
       </c>
       <c r="K22" t="n">
-        <v>183.7921618307714</v>
+        <v>183.7921618307723</v>
       </c>
       <c r="L22" t="n">
-        <v>390.4134938706597</v>
+        <v>390.4134938706606</v>
       </c>
       <c r="M22" t="n">
-        <v>618.6558411527558</v>
+        <v>618.6558411527567</v>
       </c>
       <c r="N22" t="n">
-        <v>846.9057119850668</v>
+        <v>846.9057119850677</v>
       </c>
       <c r="O22" t="n">
-        <v>1041.715115496343</v>
+        <v>1041.715115496344</v>
       </c>
       <c r="P22" t="n">
-        <v>1184.887532335767</v>
+        <v>1184.887532335768</v>
       </c>
       <c r="Q22" t="n">
-        <v>1200.577612388876</v>
+        <v>1200.577612388877</v>
       </c>
       <c r="R22" t="n">
         <v>1197.099284889279</v>
       </c>
       <c r="S22" t="n">
-        <v>1112.541177823413</v>
+        <v>1112.541177823414</v>
       </c>
       <c r="T22" t="n">
-        <v>1007.827186557471</v>
+        <v>1007.827186557472</v>
       </c>
       <c r="U22" t="n">
-        <v>838.9594794624038</v>
+        <v>838.9594794624046</v>
       </c>
       <c r="V22" t="n">
-        <v>704.5513045135829</v>
+        <v>704.5513045135835</v>
       </c>
       <c r="W22" t="n">
-        <v>535.4104477336881</v>
+        <v>535.4104477336888</v>
       </c>
       <c r="X22" t="n">
-        <v>427.6972100927367</v>
+        <v>427.6972100927372</v>
       </c>
       <c r="Y22" t="n">
-        <v>327.1809442062724</v>
+        <v>327.180944206273</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1595.568535656637</v>
+        <v>1595.568535656638</v>
       </c>
       <c r="C23" t="n">
-        <v>1346.882331973291</v>
+        <v>1346.882331973292</v>
       </c>
       <c r="D23" t="n">
-        <v>1108.892946623606</v>
+        <v>1108.892946623607</v>
       </c>
       <c r="E23" t="n">
-        <v>843.3810072824281</v>
+        <v>843.3810072824288</v>
       </c>
       <c r="F23" t="n">
-        <v>552.6714157498864</v>
+        <v>552.6714157498868</v>
       </c>
       <c r="G23" t="n">
         <v>256.1932941655851</v>
       </c>
       <c r="H23" t="n">
-        <v>61.66038136219283</v>
+        <v>61.66038136219286</v>
       </c>
       <c r="I23" t="n">
-        <v>61.66038136219283</v>
+        <v>61.66038136219286</v>
       </c>
       <c r="J23" t="n">
-        <v>149.6456156619319</v>
+        <v>278.0296648879931</v>
       </c>
       <c r="K23" t="n">
-        <v>273.7679295187103</v>
+        <v>440.5682682155242</v>
       </c>
       <c r="L23" t="n">
-        <v>878.1389997667063</v>
+        <v>1044.93933846352</v>
       </c>
       <c r="M23" t="n">
-        <v>1567.224810728856</v>
+        <v>1734.02514942567</v>
       </c>
       <c r="N23" t="n">
-        <v>2252.828752983597</v>
+        <v>2419.629091680411</v>
       </c>
       <c r="O23" t="n">
-        <v>2855.037476385199</v>
+        <v>2644.845635631895</v>
       </c>
       <c r="P23" t="n">
-        <v>3012.753585219938</v>
+        <v>2802.561744466634</v>
       </c>
       <c r="Q23" t="n">
-        <v>3083.019068109641</v>
+        <v>3083.019068109643</v>
       </c>
       <c r="R23" t="n">
-        <v>3083.019068109641</v>
+        <v>3083.019068109643</v>
       </c>
       <c r="S23" t="n">
-        <v>3054.676486853283</v>
+        <v>3054.676486853284</v>
       </c>
       <c r="T23" t="n">
-        <v>2961.612164530012</v>
+        <v>2961.612164530014</v>
       </c>
       <c r="U23" t="n">
-        <v>2828.223442286006</v>
+        <v>2828.223442286007</v>
       </c>
       <c r="V23" t="n">
-        <v>2617.436868199501</v>
+        <v>2617.436868199502</v>
       </c>
       <c r="W23" t="n">
-        <v>2384.944526186453</v>
+        <v>2384.944526186454</v>
       </c>
       <c r="X23" t="n">
-        <v>2131.755081182439</v>
+        <v>2131.75508118244</v>
       </c>
       <c r="Y23" t="n">
-        <v>1861.892062463693</v>
+        <v>1861.892062463694</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>101.4244613138268</v>
       </c>
       <c r="I24" t="n">
-        <v>61.66038136219283</v>
+        <v>61.66038136219286</v>
       </c>
       <c r="J24" t="n">
-        <v>196.8350646691722</v>
+        <v>72.00493968216752</v>
       </c>
       <c r="K24" t="n">
-        <v>554.4909718623937</v>
+        <v>167.8402622329362</v>
       </c>
       <c r="L24" t="n">
-        <v>1096.807872850855</v>
+        <v>710.1571632213979</v>
       </c>
       <c r="M24" t="n">
-        <v>1780.524478268567</v>
+        <v>1394.99462887955</v>
       </c>
       <c r="N24" t="n">
-        <v>2024.64561663255</v>
+        <v>1639.115767243533</v>
       </c>
       <c r="O24" t="n">
-        <v>2225.748970101306</v>
+        <v>2230.142816796251</v>
       </c>
       <c r="P24" t="n">
-        <v>2367.819074601528</v>
+        <v>2575.795589460019</v>
       </c>
       <c r="Q24" t="n">
         <v>2620.846495516145</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>275.2408859513332</v>
+        <v>275.2408859513338</v>
       </c>
       <c r="C25" t="n">
-        <v>226.5810162804922</v>
+        <v>226.5810162804927</v>
       </c>
       <c r="D25" t="n">
-        <v>196.7406901252224</v>
+        <v>196.7406901252228</v>
       </c>
       <c r="E25" t="n">
-        <v>169.1039097998951</v>
+        <v>169.1039097998955</v>
       </c>
       <c r="F25" t="n">
-        <v>142.4902755590507</v>
+        <v>142.4902755590509</v>
       </c>
       <c r="G25" t="n">
-        <v>94.30927176492354</v>
+        <v>94.30927176492365</v>
       </c>
       <c r="H25" t="n">
-        <v>61.66038136219283</v>
+        <v>61.66038136219286</v>
       </c>
       <c r="I25" t="n">
-        <v>61.66038136219283</v>
+        <v>61.91653245185238</v>
       </c>
       <c r="J25" t="n">
-        <v>61.66038136219283</v>
+        <v>75.14960740265053</v>
       </c>
       <c r="K25" t="n">
-        <v>179.7350291085494</v>
+        <v>193.2242551490071</v>
       </c>
       <c r="L25" t="n">
-        <v>399.8455871888943</v>
+        <v>399.8455871888954</v>
       </c>
       <c r="M25" t="n">
-        <v>628.0879344709904</v>
+        <v>628.0879344709915</v>
       </c>
       <c r="N25" t="n">
-        <v>856.3378053033014</v>
+        <v>856.3378053033025</v>
       </c>
       <c r="O25" t="n">
-        <v>1051.147208814577</v>
+        <v>1051.147208814578</v>
       </c>
       <c r="P25" t="n">
-        <v>1194.319625654002</v>
+        <v>1194.319625654003</v>
       </c>
       <c r="Q25" t="n">
-        <v>1210.00970570711</v>
+        <v>1210.009705707111</v>
       </c>
       <c r="R25" t="n">
-        <v>1206.531378207513</v>
+        <v>1206.531378207514</v>
       </c>
       <c r="S25" t="n">
-        <v>1121.973271141647</v>
+        <v>1121.973271141648</v>
       </c>
       <c r="T25" t="n">
-        <v>1017.259279875706</v>
+        <v>1017.259279875707</v>
       </c>
       <c r="U25" t="n">
-        <v>848.3915727806384</v>
+        <v>848.3915727806393</v>
       </c>
       <c r="V25" t="n">
-        <v>713.9833978318175</v>
+        <v>713.9833978318183</v>
       </c>
       <c r="W25" t="n">
-        <v>544.8425410519227</v>
+        <v>544.8425410519235</v>
       </c>
       <c r="X25" t="n">
-        <v>437.1293034109713</v>
+        <v>437.1293034109719</v>
       </c>
       <c r="Y25" t="n">
-        <v>336.613037524507</v>
+        <v>336.6130375245077</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1877.746921070137</v>
+        <v>1877.746921070138</v>
       </c>
       <c r="C26" t="n">
-        <v>1588.562181411831</v>
+        <v>1588.562181411832</v>
       </c>
       <c r="D26" t="n">
-        <v>1310.074260087186</v>
+        <v>1310.074260087187</v>
       </c>
       <c r="E26" t="n">
-        <v>1004.063784771047</v>
+        <v>1004.063784771048</v>
       </c>
       <c r="F26" t="n">
-        <v>672.8556572635453</v>
+        <v>672.8556572635457</v>
       </c>
       <c r="G26" t="n">
-        <v>335.8789997042832</v>
+        <v>335.8789997042836</v>
       </c>
       <c r="H26" t="n">
-        <v>100.8475509259305</v>
+        <v>100.8475509259306</v>
       </c>
       <c r="I26" t="n">
-        <v>73.7837148264565</v>
+        <v>73.78371482645656</v>
       </c>
       <c r="J26" t="n">
-        <v>290.1529983522567</v>
+        <v>227.0397270320449</v>
       </c>
       <c r="K26" t="n">
-        <v>735.1792706544882</v>
+        <v>351.1620408888233</v>
       </c>
       <c r="L26" t="n">
-        <v>1339.550340902484</v>
+        <v>955.5331111368193</v>
       </c>
       <c r="M26" t="n">
-        <v>2028.636151864634</v>
+        <v>1644.61892209897</v>
       </c>
       <c r="N26" t="n">
-        <v>2714.240094119374</v>
+        <v>2330.22286435371</v>
       </c>
       <c r="O26" t="n">
-        <v>2939.456638070858</v>
+        <v>2932.431587755312</v>
       </c>
       <c r="P26" t="n">
-        <v>3415.753467995365</v>
+        <v>3408.728417679818</v>
       </c>
       <c r="Q26" t="n">
-        <v>3689.185741322825</v>
+        <v>3689.185741322828</v>
       </c>
       <c r="R26" t="n">
-        <v>3689.185741322825</v>
+        <v>3689.185741322828</v>
       </c>
       <c r="S26" t="n">
-        <v>3620.344624091506</v>
+        <v>3620.344624091509</v>
       </c>
       <c r="T26" t="n">
-        <v>3486.781765793275</v>
+        <v>3486.781765793277</v>
       </c>
       <c r="U26" t="n">
-        <v>3312.894507574309</v>
+        <v>3312.89450757431</v>
       </c>
       <c r="V26" t="n">
-        <v>3061.609397512843</v>
+        <v>3061.609397512844</v>
       </c>
       <c r="W26" t="n">
-        <v>2788.618519524834</v>
+        <v>2788.618519524835</v>
       </c>
       <c r="X26" t="n">
-        <v>2494.93053854586</v>
+        <v>2494.930538545861</v>
       </c>
       <c r="Y26" t="n">
-        <v>2184.568983852154</v>
+        <v>2184.568983852155</v>
       </c>
     </row>
     <row r="27">
@@ -6288,40 +6288,40 @@
         <v>655.7762802907159</v>
       </c>
       <c r="E27" t="n">
-        <v>496.5388252852604</v>
+        <v>496.5388252852605</v>
       </c>
       <c r="F27" t="n">
         <v>350.0042673121454</v>
       </c>
       <c r="G27" t="n">
-        <v>212.7412259986584</v>
+        <v>212.7412259986585</v>
       </c>
       <c r="H27" t="n">
-        <v>113.5477947780904</v>
+        <v>113.5477947780905</v>
       </c>
       <c r="I27" t="n">
-        <v>73.7837148264565</v>
+        <v>73.78371482645656</v>
       </c>
       <c r="J27" t="n">
-        <v>84.12827314643116</v>
+        <v>84.12827314643121</v>
       </c>
       <c r="K27" t="n">
-        <v>441.7841803396526</v>
+        <v>179.9635956971999</v>
       </c>
       <c r="L27" t="n">
-        <v>984.1010813281143</v>
+        <v>722.2804966856615</v>
       </c>
       <c r="M27" t="n">
-        <v>1207.890533873766</v>
+        <v>1407.117962343813</v>
       </c>
       <c r="N27" t="n">
-        <v>1452.011672237749</v>
+        <v>1651.239100707796</v>
       </c>
       <c r="O27" t="n">
-        <v>2043.038721790467</v>
+        <v>2242.266150260514</v>
       </c>
       <c r="P27" t="n">
-        <v>2500.386967244227</v>
+        <v>2587.918922924282</v>
       </c>
       <c r="Q27" t="n">
         <v>2632.969828980408</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>527.75213319461</v>
+        <v>570.5926192459738</v>
       </c>
       <c r="C28" t="n">
-        <v>438.5937275488084</v>
+        <v>481.4342136001721</v>
       </c>
       <c r="D28" t="n">
-        <v>368.2548654185781</v>
+        <v>411.0953514699418</v>
       </c>
       <c r="E28" t="n">
-        <v>342.9600351696537</v>
+        <v>342.960035169654</v>
       </c>
       <c r="F28" t="n">
-        <v>275.8478649538487</v>
+        <v>275.847864953849</v>
       </c>
       <c r="G28" t="n">
-        <v>187.168325184761</v>
+        <v>187.1683251847612</v>
       </c>
       <c r="H28" t="n">
-        <v>114.0208988070698</v>
+        <v>114.02089880707</v>
       </c>
       <c r="I28" t="n">
-        <v>73.7837148264565</v>
+        <v>73.78371482645656</v>
       </c>
       <c r="J28" t="n">
-        <v>144.8162818212301</v>
+        <v>144.8162818212302</v>
       </c>
       <c r="K28" t="n">
-        <v>341.0811290817782</v>
+        <v>341.0811290817783</v>
       </c>
       <c r="L28" t="n">
         <v>625.892660635858</v>
       </c>
       <c r="M28" t="n">
-        <v>932.3252074321456</v>
+        <v>932.3252074321458</v>
       </c>
       <c r="N28" t="n">
         <v>1238.765277778648</v>
@@ -6421,13 +6421,13 @@
         <v>1128.488788974936</v>
       </c>
       <c r="W28" t="n">
-        <v>918.8493962200807</v>
+        <v>918.8493962200804</v>
       </c>
       <c r="X28" t="n">
-        <v>770.6376226041688</v>
+        <v>813.4781086555332</v>
       </c>
       <c r="Y28" t="n">
-        <v>629.6228207427444</v>
+        <v>672.4633067941081</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1877.746921070137</v>
+        <v>1877.746921070138</v>
       </c>
       <c r="C29" t="n">
         <v>1588.562181411831</v>
@@ -6449,19 +6449,19 @@
         <v>1004.063784771047</v>
       </c>
       <c r="F29" t="n">
-        <v>672.8556572635448</v>
+        <v>672.8556572635453</v>
       </c>
       <c r="G29" t="n">
-        <v>335.8789997042827</v>
+        <v>335.8789997042832</v>
       </c>
       <c r="H29" t="n">
-        <v>100.8475509259305</v>
+        <v>100.8475509259306</v>
       </c>
       <c r="I29" t="n">
-        <v>73.7837148264565</v>
+        <v>73.78371482645653</v>
       </c>
       <c r="J29" t="n">
-        <v>122.7473493319036</v>
+        <v>122.7473493319037</v>
       </c>
       <c r="K29" t="n">
         <v>567.7736216341351</v>
@@ -6479,34 +6479,34 @@
         <v>3149.043168500623</v>
       </c>
       <c r="P29" t="n">
-        <v>3618.920258433121</v>
+        <v>3618.920258433123</v>
       </c>
       <c r="Q29" t="n">
-        <v>3689.185741322825</v>
+        <v>3689.185741322827</v>
       </c>
       <c r="R29" t="n">
-        <v>3689.185741322825</v>
+        <v>3689.185741322827</v>
       </c>
       <c r="S29" t="n">
-        <v>3620.344624091506</v>
+        <v>3620.344624091508</v>
       </c>
       <c r="T29" t="n">
         <v>3486.781765793276</v>
       </c>
       <c r="U29" t="n">
-        <v>3312.894507574309</v>
+        <v>3312.89450757431</v>
       </c>
       <c r="V29" t="n">
-        <v>3061.609397512843</v>
+        <v>3061.609397512844</v>
       </c>
       <c r="W29" t="n">
-        <v>2788.618519524834</v>
+        <v>2788.618519524835</v>
       </c>
       <c r="X29" t="n">
-        <v>2494.93053854586</v>
+        <v>2494.930538545861</v>
       </c>
       <c r="Y29" t="n">
-        <v>2184.568983852153</v>
+        <v>2184.568983852154</v>
       </c>
     </row>
     <row r="30">
@@ -6525,40 +6525,40 @@
         <v>655.7762802907159</v>
       </c>
       <c r="E30" t="n">
-        <v>496.5388252852604</v>
+        <v>496.5388252852605</v>
       </c>
       <c r="F30" t="n">
         <v>350.0042673121454</v>
       </c>
       <c r="G30" t="n">
-        <v>212.7412259986584</v>
+        <v>212.7412259986585</v>
       </c>
       <c r="H30" t="n">
-        <v>113.5477947780904</v>
+        <v>113.5477947780905</v>
       </c>
       <c r="I30" t="n">
-        <v>73.7837148264565</v>
+        <v>73.78371482645653</v>
       </c>
       <c r="J30" t="n">
-        <v>84.12827314643116</v>
+        <v>180.2939325602823</v>
       </c>
       <c r="K30" t="n">
-        <v>441.7841803396526</v>
+        <v>276.129255111051</v>
       </c>
       <c r="L30" t="n">
-        <v>984.1010813281143</v>
+        <v>451.3142142490882</v>
       </c>
       <c r="M30" t="n">
-        <v>1207.890533873766</v>
+        <v>1136.15167990724</v>
       </c>
       <c r="N30" t="n">
-        <v>1452.011672237749</v>
+        <v>1854.821768871341</v>
       </c>
       <c r="O30" t="n">
-        <v>2043.038721790467</v>
+        <v>2445.848818424059</v>
       </c>
       <c r="P30" t="n">
-        <v>2500.386967244227</v>
+        <v>2587.918922924282</v>
       </c>
       <c r="Q30" t="n">
         <v>2632.969828980408</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>527.7521331946102</v>
+        <v>530.3554352653605</v>
       </c>
       <c r="C31" t="n">
-        <v>438.5937275488087</v>
+        <v>441.1970296195589</v>
       </c>
       <c r="D31" t="n">
-        <v>411.0953514699414</v>
+        <v>370.8581674893285</v>
       </c>
       <c r="E31" t="n">
-        <v>342.9600351696537</v>
+        <v>302.7228511890407</v>
       </c>
       <c r="F31" t="n">
-        <v>275.8478649538488</v>
+        <v>235.6106809732357</v>
       </c>
       <c r="G31" t="n">
-        <v>187.1683251847611</v>
+        <v>146.9311412041478</v>
       </c>
       <c r="H31" t="n">
-        <v>114.0208988070699</v>
+        <v>73.78371482645653</v>
       </c>
       <c r="I31" t="n">
-        <v>73.7837148264565</v>
+        <v>73.78371482645653</v>
       </c>
       <c r="J31" t="n">
-        <v>144.8162818212302</v>
+        <v>144.8162818212301</v>
       </c>
       <c r="K31" t="n">
-        <v>341.0811290817783</v>
+        <v>341.0811290817782</v>
       </c>
       <c r="L31" t="n">
-        <v>625.8926606358582</v>
+        <v>625.8926606358579</v>
       </c>
       <c r="M31" t="n">
-        <v>932.3252074321457</v>
+        <v>932.3252074321456</v>
       </c>
       <c r="N31" t="n">
         <v>1238.765277778648</v>
@@ -6643,28 +6643,28 @@
         <v>1827.007776725031</v>
       </c>
       <c r="R31" t="n">
-        <v>1783.030913250474</v>
+        <v>1785.634215321225</v>
       </c>
       <c r="S31" t="n">
-        <v>1657.974270209647</v>
+        <v>1660.577572280399</v>
       </c>
       <c r="T31" t="n">
-        <v>1512.761742968745</v>
+        <v>1515.365045039497</v>
       </c>
       <c r="U31" t="n">
-        <v>1303.395499898717</v>
+        <v>1305.998801969469</v>
       </c>
       <c r="V31" t="n">
-        <v>1128.488788974936</v>
+        <v>1131.092091045687</v>
       </c>
       <c r="W31" t="n">
-        <v>918.8493962200807</v>
+        <v>921.4526982908318</v>
       </c>
       <c r="X31" t="n">
-        <v>770.6376226041687</v>
+        <v>773.2409246749198</v>
       </c>
       <c r="Y31" t="n">
-        <v>629.6228207427446</v>
+        <v>632.2261228134948</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1864.618257733963</v>
+        <v>1864.618257733964</v>
       </c>
       <c r="C32" t="n">
-        <v>1577.23045802949</v>
+        <v>1577.230458029491</v>
       </c>
       <c r="D32" t="n">
-        <v>1300.539476658679</v>
+        <v>1300.53947665868</v>
       </c>
       <c r="E32" t="n">
-        <v>996.325941296374</v>
+        <v>996.325941296375</v>
       </c>
       <c r="F32" t="n">
-        <v>666.9147537427059</v>
+        <v>666.9147537427068</v>
       </c>
       <c r="G32" t="n">
-        <v>331.7350361372783</v>
+        <v>331.7350361372787</v>
       </c>
       <c r="H32" t="n">
-        <v>98.50052731275966</v>
+        <v>98.50052731275971</v>
       </c>
       <c r="I32" t="n">
-        <v>73.2336311671196</v>
+        <v>73.23363116711963</v>
       </c>
       <c r="J32" t="n">
-        <v>199.5355440651969</v>
+        <v>197.2123067095124</v>
       </c>
       <c r="K32" t="n">
-        <v>323.6578579219753</v>
+        <v>642.2385790117439</v>
       </c>
       <c r="L32" t="n">
-        <v>928.0289281699713</v>
+        <v>1246.60964925974</v>
       </c>
       <c r="M32" t="n">
-        <v>1617.114739132121</v>
+        <v>1935.69546022189</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.718681386862</v>
+        <v>2621.29940247663</v>
       </c>
       <c r="O32" t="n">
-        <v>2904.927404788464</v>
+        <v>3223.508125878232</v>
       </c>
       <c r="P32" t="n">
-        <v>3381.22423471297</v>
+        <v>3381.224234712971</v>
       </c>
       <c r="Q32" t="n">
-        <v>3661.68155835598</v>
+        <v>3661.681558355981</v>
       </c>
       <c r="R32" t="n">
-        <v>3661.68155835598</v>
+        <v>3661.681558355981</v>
       </c>
       <c r="S32" t="n">
-        <v>3594.637381078494</v>
+        <v>3594.637381078496</v>
       </c>
       <c r="T32" t="n">
-        <v>3462.871462734097</v>
+        <v>3462.871462734099</v>
       </c>
       <c r="U32" t="n">
-        <v>3290.781144468964</v>
+        <v>3290.781144468965</v>
       </c>
       <c r="V32" t="n">
-        <v>3041.292974361333</v>
+        <v>3041.292974361334</v>
       </c>
       <c r="W32" t="n">
-        <v>2770.099036327158</v>
+        <v>2770.099036327159</v>
       </c>
       <c r="X32" t="n">
-        <v>2478.207995302017</v>
+        <v>2478.207995302019</v>
       </c>
       <c r="Y32" t="n">
-        <v>2169.643380562145</v>
+        <v>2169.643380562146</v>
       </c>
     </row>
     <row r="33">
@@ -6762,37 +6762,37 @@
         <v>655.226196631379</v>
       </c>
       <c r="E33" t="n">
-        <v>495.9887416259235</v>
+        <v>495.9887416259236</v>
       </c>
       <c r="F33" t="n">
         <v>349.4541836528085</v>
       </c>
       <c r="G33" t="n">
-        <v>212.1911423393215</v>
+        <v>212.1911423393216</v>
       </c>
       <c r="H33" t="n">
-        <v>112.9977111187535</v>
+        <v>112.9977111187536</v>
       </c>
       <c r="I33" t="n">
-        <v>73.2336311671196</v>
+        <v>73.23363116711963</v>
       </c>
       <c r="J33" t="n">
-        <v>208.408314474099</v>
+        <v>171.1101451671486</v>
       </c>
       <c r="K33" t="n">
-        <v>566.0642216673205</v>
+        <v>528.7660523603702</v>
       </c>
       <c r="L33" t="n">
-        <v>1108.381122655782</v>
+        <v>1071.082953348832</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.170575201434</v>
+        <v>1294.872405894484</v>
       </c>
       <c r="N33" t="n">
-        <v>1576.291713565417</v>
+        <v>1538.993544258467</v>
       </c>
       <c r="O33" t="n">
-        <v>2167.318763118135</v>
+        <v>2130.020593811185</v>
       </c>
       <c r="P33" t="n">
         <v>2587.368839264945</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>557.4639559097989</v>
+        <v>557.4639559097992</v>
       </c>
       <c r="C34" t="n">
-        <v>470.1024902178312</v>
+        <v>470.1024902178316</v>
       </c>
       <c r="D34" t="n">
-        <v>401.5605680414349</v>
+        <v>401.5605680414352</v>
       </c>
       <c r="E34" t="n">
-        <v>335.2221916949811</v>
+        <v>335.2221916949814</v>
       </c>
       <c r="F34" t="n">
-        <v>269.9069614330101</v>
+        <v>269.9069614330102</v>
       </c>
       <c r="G34" t="n">
-        <v>183.0243616177563</v>
+        <v>183.0243616177564</v>
       </c>
       <c r="H34" t="n">
         <v>111.6738751938991</v>
       </c>
       <c r="I34" t="n">
-        <v>73.2336311671196</v>
+        <v>73.23363116711963</v>
       </c>
       <c r="J34" t="n">
-        <v>146.0273790106459</v>
+        <v>146.027379010646</v>
       </c>
       <c r="K34" t="n">
-        <v>344.0534071199467</v>
+        <v>344.0534071199468</v>
       </c>
       <c r="L34" t="n">
-        <v>630.626119522779</v>
+        <v>630.6261195227792</v>
       </c>
       <c r="M34" t="n">
         <v>938.8198471678195</v>
@@ -6877,31 +6877,31 @@
         <v>1744.905679439663</v>
       </c>
       <c r="Q34" t="n">
-        <v>1840.547139855715</v>
+        <v>1840.547139855716</v>
       </c>
       <c r="R34" t="n">
-        <v>1798.367216334991</v>
+        <v>1798.367216334992</v>
       </c>
       <c r="S34" t="n">
-        <v>1675.107513247999</v>
+        <v>1675.107513248</v>
       </c>
       <c r="T34" t="n">
-        <v>1531.691925960931</v>
+        <v>1531.691925960932</v>
       </c>
       <c r="U34" t="n">
-        <v>1324.122622844737</v>
+        <v>1324.122622844738</v>
       </c>
       <c r="V34" t="n">
-        <v>1151.012851874789</v>
+        <v>1151.01285187479</v>
       </c>
       <c r="W34" t="n">
-        <v>943.1703990737678</v>
+        <v>943.1703990737683</v>
       </c>
       <c r="X34" t="n">
-        <v>796.7555654116899</v>
+        <v>796.7555654116903</v>
       </c>
       <c r="Y34" t="n">
-        <v>657.5377035040992</v>
+        <v>657.5377035040996</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1864.618257733963</v>
+        <v>1864.618257733964</v>
       </c>
       <c r="C35" t="n">
-        <v>1577.23045802949</v>
+        <v>1577.230458029491</v>
       </c>
       <c r="D35" t="n">
         <v>1300.53947665868</v>
       </c>
       <c r="E35" t="n">
-        <v>996.3259412963746</v>
+        <v>996.325941296375</v>
       </c>
       <c r="F35" t="n">
-        <v>666.9147537427064</v>
+        <v>666.9147537427068</v>
       </c>
       <c r="G35" t="n">
-        <v>331.7350361372783</v>
+        <v>331.7350361372787</v>
       </c>
       <c r="H35" t="n">
-        <v>98.50052731275966</v>
+        <v>98.50052731275971</v>
       </c>
       <c r="I35" t="n">
-        <v>73.2336311671196</v>
+        <v>73.23363116711961</v>
       </c>
       <c r="J35" t="n">
-        <v>199.5355440651975</v>
+        <v>122.1972656725668</v>
       </c>
       <c r="K35" t="n">
-        <v>323.6578579219758</v>
+        <v>567.2235379747982</v>
       </c>
       <c r="L35" t="n">
-        <v>928.0289281699719</v>
+        <v>1171.594608222794</v>
       </c>
       <c r="M35" t="n">
         <v>1617.114739132122</v>
@@ -6950,37 +6950,37 @@
         <v>2302.718681386862</v>
       </c>
       <c r="O35" t="n">
-        <v>2904.927404788464</v>
+        <v>2904.927404788465</v>
       </c>
       <c r="P35" t="n">
         <v>3381.224234712971</v>
       </c>
       <c r="Q35" t="n">
-        <v>3661.68155835598</v>
+        <v>3661.681558355981</v>
       </c>
       <c r="R35" t="n">
-        <v>3661.68155835598</v>
+        <v>3661.681558355981</v>
       </c>
       <c r="S35" t="n">
         <v>3594.637381078495</v>
       </c>
       <c r="T35" t="n">
-        <v>3462.871462734098</v>
+        <v>3462.871462734099</v>
       </c>
       <c r="U35" t="n">
-        <v>3290.781144468964</v>
+        <v>3290.781144468966</v>
       </c>
       <c r="V35" t="n">
-        <v>3041.292974361333</v>
+        <v>3041.292974361334</v>
       </c>
       <c r="W35" t="n">
-        <v>2770.099036327158</v>
+        <v>2770.099036327159</v>
       </c>
       <c r="X35" t="n">
-        <v>2478.207995302018</v>
+        <v>2478.207995302019</v>
       </c>
       <c r="Y35" t="n">
-        <v>2169.643380562145</v>
+        <v>2169.643380562146</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>112.9977111187536</v>
       </c>
       <c r="I36" t="n">
-        <v>73.2336311671196</v>
+        <v>73.23363116711961</v>
       </c>
       <c r="J36" t="n">
         <v>208.408314474099</v>
@@ -7020,19 +7020,19 @@
         <v>566.0642216673205</v>
       </c>
       <c r="L36" t="n">
-        <v>1108.381122655782</v>
+        <v>863.1064384903414</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.170575201434</v>
+        <v>1086.895891035993</v>
       </c>
       <c r="N36" t="n">
-        <v>1576.291713565417</v>
+        <v>1331.017029399976</v>
       </c>
       <c r="O36" t="n">
-        <v>2167.318763118135</v>
+        <v>1922.044078952694</v>
       </c>
       <c r="P36" t="n">
-        <v>2587.368839264945</v>
+        <v>2379.392324406454</v>
       </c>
       <c r="Q36" t="n">
         <v>2632.419745321072</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>557.4639559097981</v>
+        <v>557.4639559097991</v>
       </c>
       <c r="C37" t="n">
-        <v>470.1024902178305</v>
+        <v>470.1024902178315</v>
       </c>
       <c r="D37" t="n">
-        <v>401.5605680414341</v>
+        <v>401.5605680414351</v>
       </c>
       <c r="E37" t="n">
-        <v>335.2221916949804</v>
+        <v>335.2221916949813</v>
       </c>
       <c r="F37" t="n">
-        <v>269.9069614330094</v>
+        <v>269.9069614330102</v>
       </c>
       <c r="G37" t="n">
-        <v>183.0243616177556</v>
+        <v>183.0243616177564</v>
       </c>
       <c r="H37" t="n">
-        <v>111.6738751938988</v>
+        <v>111.6738751938991</v>
       </c>
       <c r="I37" t="n">
-        <v>73.2336311671196</v>
+        <v>73.23363116711961</v>
       </c>
       <c r="J37" t="n">
         <v>146.0273790106459</v>
@@ -7099,10 +7099,10 @@
         <v>344.0534071199467</v>
       </c>
       <c r="L37" t="n">
-        <v>630.626119522779</v>
+        <v>630.6261195227789</v>
       </c>
       <c r="M37" t="n">
-        <v>938.8198471678188</v>
+        <v>938.819847167819</v>
       </c>
       <c r="N37" t="n">
         <v>1247.021098363074</v>
@@ -7117,28 +7117,28 @@
         <v>1840.547139855715</v>
       </c>
       <c r="R37" t="n">
-        <v>1798.367216334991</v>
+        <v>1798.367216334992</v>
       </c>
       <c r="S37" t="n">
-        <v>1675.107513247998</v>
+        <v>1675.107513247999</v>
       </c>
       <c r="T37" t="n">
         <v>1531.691925960931</v>
       </c>
       <c r="U37" t="n">
-        <v>1324.122622844736</v>
+        <v>1324.122622844737</v>
       </c>
       <c r="V37" t="n">
-        <v>1151.012851874789</v>
+        <v>1151.01285187479</v>
       </c>
       <c r="W37" t="n">
-        <v>943.1703990737672</v>
+        <v>943.1703990737683</v>
       </c>
       <c r="X37" t="n">
-        <v>796.7555654116892</v>
+        <v>796.7555654116902</v>
       </c>
       <c r="Y37" t="n">
-        <v>657.5377035040984</v>
+        <v>657.5377035040995</v>
       </c>
     </row>
     <row r="38">
@@ -7157,58 +7157,58 @@
         <v>1300.53947665868</v>
       </c>
       <c r="E38" t="n">
-        <v>996.3259412963747</v>
+        <v>996.3259412963746</v>
       </c>
       <c r="F38" t="n">
-        <v>666.9147537427066</v>
+        <v>666.9147537427064</v>
       </c>
       <c r="G38" t="n">
         <v>331.7350361372783</v>
       </c>
       <c r="H38" t="n">
-        <v>98.50052731275957</v>
+        <v>98.50052731275973</v>
       </c>
       <c r="I38" t="n">
-        <v>73.23363116711958</v>
+        <v>73.23363116711961</v>
       </c>
       <c r="J38" t="n">
-        <v>122.1972656725667</v>
+        <v>289.6029146929198</v>
       </c>
       <c r="K38" t="n">
-        <v>567.2235379747982</v>
+        <v>734.6291869951513</v>
       </c>
       <c r="L38" t="n">
-        <v>1171.594608222794</v>
+        <v>1339.000257243147</v>
       </c>
       <c r="M38" t="n">
-        <v>1860.680419184944</v>
+        <v>1596.591833641839</v>
       </c>
       <c r="N38" t="n">
-        <v>2546.284361439684</v>
+        <v>2282.195775896579</v>
       </c>
       <c r="O38" t="n">
-        <v>3148.493084841286</v>
+        <v>2884.404499298181</v>
       </c>
       <c r="P38" t="n">
-        <v>3591.416075466275</v>
+        <v>3360.701329222688</v>
       </c>
       <c r="Q38" t="n">
-        <v>3661.681558355979</v>
+        <v>3641.158652865697</v>
       </c>
       <c r="R38" t="n">
-        <v>3661.681558355979</v>
+        <v>3661.681558355981</v>
       </c>
       <c r="S38" t="n">
-        <v>3594.637381078494</v>
+        <v>3594.637381078495</v>
       </c>
       <c r="T38" t="n">
-        <v>3462.871462734097</v>
+        <v>3462.871462734098</v>
       </c>
       <c r="U38" t="n">
-        <v>3290.781144468964</v>
+        <v>3290.781144468965</v>
       </c>
       <c r="V38" t="n">
-        <v>3041.292974361333</v>
+        <v>3041.292974361334</v>
       </c>
       <c r="W38" t="n">
         <v>2770.099036327159</v>
@@ -7236,40 +7236,40 @@
         <v>655.226196631379</v>
       </c>
       <c r="E39" t="n">
-        <v>495.9887416259235</v>
+        <v>495.9887416259236</v>
       </c>
       <c r="F39" t="n">
         <v>349.4541836528085</v>
       </c>
       <c r="G39" t="n">
-        <v>212.1911423393215</v>
+        <v>212.1911423393216</v>
       </c>
       <c r="H39" t="n">
-        <v>112.9977111187535</v>
+        <v>112.9977111187536</v>
       </c>
       <c r="I39" t="n">
-        <v>73.23363116711958</v>
+        <v>73.23363116711961</v>
       </c>
       <c r="J39" t="n">
-        <v>208.408314474099</v>
+        <v>83.57818948709426</v>
       </c>
       <c r="K39" t="n">
-        <v>320.7895375018796</v>
+        <v>179.4135120378629</v>
       </c>
       <c r="L39" t="n">
-        <v>863.1064384903414</v>
+        <v>721.7304130263246</v>
       </c>
       <c r="M39" t="n">
-        <v>1086.895891035993</v>
+        <v>1406.567878684476</v>
       </c>
       <c r="N39" t="n">
-        <v>1331.017029399976</v>
+        <v>1650.689017048459</v>
       </c>
       <c r="O39" t="n">
-        <v>1922.044078952694</v>
+        <v>2241.716066601177</v>
       </c>
       <c r="P39" t="n">
-        <v>2379.392324406454</v>
+        <v>2587.368839264945</v>
       </c>
       <c r="Q39" t="n">
         <v>2632.419745321072</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>557.4639559097984</v>
+        <v>557.4639559097991</v>
       </c>
       <c r="C40" t="n">
-        <v>470.1024902178308</v>
+        <v>470.1024902178315</v>
       </c>
       <c r="D40" t="n">
-        <v>401.5605680414345</v>
+        <v>401.5605680414351</v>
       </c>
       <c r="E40" t="n">
-        <v>335.2221916949808</v>
+        <v>335.2221916949813</v>
       </c>
       <c r="F40" t="n">
-        <v>269.9069614330099</v>
+        <v>269.9069614330102</v>
       </c>
       <c r="G40" t="n">
-        <v>183.0243616177562</v>
+        <v>183.0243616177564</v>
       </c>
       <c r="H40" t="n">
-        <v>111.673875193899</v>
+        <v>111.6738751938991</v>
       </c>
       <c r="I40" t="n">
-        <v>73.23363116711958</v>
+        <v>73.23363116711961</v>
       </c>
       <c r="J40" t="n">
-        <v>146.027379010646</v>
+        <v>146.0273790106459</v>
       </c>
       <c r="K40" t="n">
-        <v>344.0534071199468</v>
+        <v>344.0534071199466</v>
       </c>
       <c r="L40" t="n">
-        <v>630.6261195227792</v>
+        <v>630.6261195227789</v>
       </c>
       <c r="M40" t="n">
-        <v>938.8198471678195</v>
+        <v>938.8198471678193</v>
       </c>
       <c r="N40" t="n">
-        <v>1247.021098363075</v>
+        <v>1247.021098363074</v>
       </c>
       <c r="O40" t="n">
-        <v>1521.781882237295</v>
+        <v>1521.781882237294</v>
       </c>
       <c r="P40" t="n">
         <v>1744.905679439663</v>
       </c>
       <c r="Q40" t="n">
-        <v>1840.547139855714</v>
+        <v>1840.547139855716</v>
       </c>
       <c r="R40" t="n">
-        <v>1798.36721633499</v>
+        <v>1798.367216334992</v>
       </c>
       <c r="S40" t="n">
-        <v>1675.107513247998</v>
+        <v>1675.107513248</v>
       </c>
       <c r="T40" t="n">
-        <v>1531.69192596093</v>
+        <v>1531.691925960931</v>
       </c>
       <c r="U40" t="n">
-        <v>1324.122622844736</v>
+        <v>1324.122622844737</v>
       </c>
       <c r="V40" t="n">
-        <v>1151.012851874789</v>
+        <v>1151.01285187479</v>
       </c>
       <c r="W40" t="n">
-        <v>943.1703990737674</v>
+        <v>943.1703990737683</v>
       </c>
       <c r="X40" t="n">
-        <v>796.7555654116894</v>
+        <v>796.7555654116902</v>
       </c>
       <c r="Y40" t="n">
-        <v>657.5377035040988</v>
+        <v>657.5377035040995</v>
       </c>
     </row>
     <row r="41">
@@ -7403,55 +7403,55 @@
         <v>331.7350361372778</v>
       </c>
       <c r="H41" t="n">
-        <v>98.50052731275967</v>
+        <v>98.5005273127597</v>
       </c>
       <c r="I41" t="n">
-        <v>73.23363116711958</v>
+        <v>73.2336311671196</v>
       </c>
       <c r="J41" t="n">
-        <v>122.1972656725667</v>
+        <v>289.6029146929198</v>
       </c>
       <c r="K41" t="n">
-        <v>567.2235379747982</v>
+        <v>734.6291869951513</v>
       </c>
       <c r="L41" t="n">
-        <v>1171.594608222794</v>
+        <v>1339.000257243147</v>
       </c>
       <c r="M41" t="n">
-        <v>1860.680419184944</v>
+        <v>2028.086068205297</v>
       </c>
       <c r="N41" t="n">
-        <v>2546.284361439684</v>
+        <v>2713.690010460037</v>
       </c>
       <c r="O41" t="n">
-        <v>3148.493084841286</v>
+        <v>3315.898733861639</v>
       </c>
       <c r="P41" t="n">
-        <v>3591.416075466275</v>
+        <v>3473.614842696378</v>
       </c>
       <c r="Q41" t="n">
-        <v>3661.681558355979</v>
+        <v>3661.68155835598</v>
       </c>
       <c r="R41" t="n">
-        <v>3661.681558355979</v>
+        <v>3661.68155835598</v>
       </c>
       <c r="S41" t="n">
         <v>3594.637381078494</v>
       </c>
       <c r="T41" t="n">
-        <v>3462.871462734097</v>
+        <v>3462.871462734098</v>
       </c>
       <c r="U41" t="n">
-        <v>3290.781144468964</v>
+        <v>3290.781144468965</v>
       </c>
       <c r="V41" t="n">
         <v>3041.292974361333</v>
       </c>
       <c r="W41" t="n">
-        <v>2770.099036327158</v>
+        <v>2770.099036327159</v>
       </c>
       <c r="X41" t="n">
-        <v>2478.207995302017</v>
+        <v>2478.207995302018</v>
       </c>
       <c r="Y41" t="n">
         <v>2169.643380562145</v>
@@ -7485,28 +7485,28 @@
         <v>112.9977111187535</v>
       </c>
       <c r="I42" t="n">
-        <v>73.23363116711958</v>
+        <v>73.2336311671196</v>
       </c>
       <c r="J42" t="n">
-        <v>83.57818948709424</v>
+        <v>83.57818948709425</v>
       </c>
       <c r="K42" t="n">
-        <v>441.2340966803157</v>
+        <v>179.4135120378629</v>
       </c>
       <c r="L42" t="n">
-        <v>983.5509976687774</v>
+        <v>354.5984711759002</v>
       </c>
       <c r="M42" t="n">
-        <v>1207.340450214429</v>
+        <v>1039.435936834052</v>
       </c>
       <c r="N42" t="n">
-        <v>1451.461588578412</v>
+        <v>1758.106025798153</v>
       </c>
       <c r="O42" t="n">
-        <v>2042.48863813113</v>
+        <v>2349.133075350871</v>
       </c>
       <c r="P42" t="n">
-        <v>2499.836883584891</v>
+        <v>2491.203179851093</v>
       </c>
       <c r="Q42" t="n">
         <v>2632.419745321072</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>557.4639559097986</v>
+        <v>557.4639559097991</v>
       </c>
       <c r="C43" t="n">
-        <v>470.1024902178311</v>
+        <v>470.1024902178315</v>
       </c>
       <c r="D43" t="n">
-        <v>401.5605680414347</v>
+        <v>401.560568041435</v>
       </c>
       <c r="E43" t="n">
-        <v>335.2221916949809</v>
+        <v>335.2221916949812</v>
       </c>
       <c r="F43" t="n">
-        <v>269.9069614330099</v>
+        <v>269.9069614330102</v>
       </c>
       <c r="G43" t="n">
-        <v>183.0243616177561</v>
+        <v>183.0243616177564</v>
       </c>
       <c r="H43" t="n">
         <v>111.6738751938991</v>
       </c>
       <c r="I43" t="n">
-        <v>73.23363116711958</v>
+        <v>73.2336311671196</v>
       </c>
       <c r="J43" t="n">
         <v>146.0273790106459</v>
@@ -7576,7 +7576,7 @@
         <v>630.6261195227789</v>
       </c>
       <c r="M43" t="n">
-        <v>938.8198471678188</v>
+        <v>938.819847167819</v>
       </c>
       <c r="N43" t="n">
         <v>1247.021098363074</v>
@@ -7591,7 +7591,7 @@
         <v>1840.547139855715</v>
       </c>
       <c r="R43" t="n">
-        <v>1798.367216334991</v>
+        <v>1798.367216334992</v>
       </c>
       <c r="S43" t="n">
         <v>1675.107513247999</v>
@@ -7603,16 +7603,16 @@
         <v>1324.122622844737</v>
       </c>
       <c r="V43" t="n">
-        <v>1151.012851874789</v>
+        <v>1151.01285187479</v>
       </c>
       <c r="W43" t="n">
-        <v>943.1703990737678</v>
+        <v>943.1703990737683</v>
       </c>
       <c r="X43" t="n">
-        <v>796.7555654116898</v>
+        <v>796.7555654116902</v>
       </c>
       <c r="Y43" t="n">
-        <v>657.537703504099</v>
+        <v>657.5377035040995</v>
       </c>
     </row>
     <row r="44">
@@ -7631,46 +7631,46 @@
         <v>1300.53947665868</v>
       </c>
       <c r="E44" t="n">
-        <v>996.3259412963748</v>
+        <v>996.3259412963746</v>
       </c>
       <c r="F44" t="n">
-        <v>666.9147537427066</v>
+        <v>666.9147537427064</v>
       </c>
       <c r="G44" t="n">
-        <v>331.7350361372785</v>
+        <v>331.7350361372783</v>
       </c>
       <c r="H44" t="n">
-        <v>98.50052731275967</v>
+        <v>98.50052731275966</v>
       </c>
       <c r="I44" t="n">
-        <v>73.23363116711958</v>
+        <v>73.2336311671196</v>
       </c>
       <c r="J44" t="n">
-        <v>122.1972656725667</v>
+        <v>289.6029146929199</v>
       </c>
       <c r="K44" t="n">
-        <v>567.2235379747982</v>
+        <v>734.6291869951514</v>
       </c>
       <c r="L44" t="n">
-        <v>1171.594608222794</v>
+        <v>928.0289281699713</v>
       </c>
       <c r="M44" t="n">
-        <v>1860.680419184944</v>
+        <v>1617.114739132121</v>
       </c>
       <c r="N44" t="n">
-        <v>2512.910522140166</v>
+        <v>2302.718681386862</v>
       </c>
       <c r="O44" t="n">
-        <v>3115.119245541769</v>
+        <v>2904.927404788464</v>
       </c>
       <c r="P44" t="n">
-        <v>3591.416075466275</v>
+        <v>3381.22423471297</v>
       </c>
       <c r="Q44" t="n">
-        <v>3661.681558355979</v>
+        <v>3661.68155835598</v>
       </c>
       <c r="R44" t="n">
-        <v>3661.681558355979</v>
+        <v>3661.68155835598</v>
       </c>
       <c r="S44" t="n">
         <v>3594.637381078494</v>
@@ -7679,10 +7679,10 @@
         <v>3462.871462734097</v>
       </c>
       <c r="U44" t="n">
-        <v>3290.781144468963</v>
+        <v>3290.781144468965</v>
       </c>
       <c r="V44" t="n">
-        <v>3041.292974361332</v>
+        <v>3041.292974361334</v>
       </c>
       <c r="W44" t="n">
         <v>2770.099036327159</v>
@@ -7722,25 +7722,25 @@
         <v>112.9977111187535</v>
       </c>
       <c r="I45" t="n">
-        <v>73.23363116711958</v>
+        <v>73.2336311671196</v>
       </c>
       <c r="J45" t="n">
-        <v>83.57818948709424</v>
+        <v>179.7438489009458</v>
       </c>
       <c r="K45" t="n">
-        <v>179.4135120378629</v>
+        <v>275.5791714517145</v>
       </c>
       <c r="L45" t="n">
-        <v>721.7304130263246</v>
+        <v>450.7641305897517</v>
       </c>
       <c r="M45" t="n">
-        <v>1406.567878684476</v>
+        <v>1135.601596247903</v>
       </c>
       <c r="N45" t="n">
-        <v>1650.689017048459</v>
+        <v>1854.271685212005</v>
       </c>
       <c r="O45" t="n">
-        <v>2241.716066601177</v>
+        <v>2445.298734764723</v>
       </c>
       <c r="P45" t="n">
         <v>2587.368839264945</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>557.4639559097989</v>
+        <v>557.4639559097991</v>
       </c>
       <c r="C46" t="n">
-        <v>470.1024902178313</v>
+        <v>470.1024902178315</v>
       </c>
       <c r="D46" t="n">
-        <v>401.5605680414349</v>
+        <v>401.5605680414351</v>
       </c>
       <c r="E46" t="n">
-        <v>335.2221916949811</v>
+        <v>335.2221916949813</v>
       </c>
       <c r="F46" t="n">
-        <v>269.9069614330101</v>
+        <v>269.9069614330103</v>
       </c>
       <c r="G46" t="n">
-        <v>183.0243616177564</v>
+        <v>183.0243616177565</v>
       </c>
       <c r="H46" t="n">
         <v>111.6738751938991</v>
       </c>
       <c r="I46" t="n">
-        <v>73.23363116711958</v>
+        <v>73.2336311671196</v>
       </c>
       <c r="J46" t="n">
         <v>146.0273790106459</v>
       </c>
       <c r="K46" t="n">
-        <v>344.0534071199467</v>
+        <v>344.0534071199461</v>
       </c>
       <c r="L46" t="n">
-        <v>630.626119522779</v>
+        <v>630.6261195227785</v>
       </c>
       <c r="M46" t="n">
-        <v>938.8198471678193</v>
+        <v>938.819847167819</v>
       </c>
       <c r="N46" t="n">
         <v>1247.021098363074</v>
@@ -7822,16 +7822,16 @@
         <v>1521.781882237294</v>
       </c>
       <c r="P46" t="n">
-        <v>1744.905679439662</v>
+        <v>1744.905679439663</v>
       </c>
       <c r="Q46" t="n">
-        <v>1840.547139855715</v>
+        <v>1840.547139855716</v>
       </c>
       <c r="R46" t="n">
         <v>1798.367216334992</v>
       </c>
       <c r="S46" t="n">
-        <v>1675.107513247999</v>
+        <v>1675.107513248</v>
       </c>
       <c r="T46" t="n">
         <v>1531.691925960931</v>
@@ -7840,16 +7840,16 @@
         <v>1324.122622844737</v>
       </c>
       <c r="V46" t="n">
-        <v>1151.012851874789</v>
+        <v>1151.01285187479</v>
       </c>
       <c r="W46" t="n">
-        <v>943.1703990737681</v>
+        <v>943.1703990737684</v>
       </c>
       <c r="X46" t="n">
-        <v>796.75556541169</v>
+        <v>796.7555654116904</v>
       </c>
       <c r="Y46" t="n">
-        <v>657.5377035040992</v>
+        <v>657.5377035040995</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>226.965896786692</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>242.6424607116987</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
         <v>236.944458939016</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O8" t="n">
         <v>236.9742571633982</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>238.109041496981</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,22 +8535,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>145.4304255215856</v>
       </c>
       <c r="M9" t="n">
-        <v>148.7322596337616</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O9" t="n">
-        <v>149.4722901861559</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>140.8504531560417</v>
+        <v>140.5726331260735</v>
       </c>
       <c r="Q9" t="n">
-        <v>146.857819827733</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,10 +8690,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>322.2525410082356</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>18.8373360030138</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>44.98621230703972</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>90.14680986930779</v>
       </c>
       <c r="M12" t="n">
-        <v>352.8813538611187</v>
+        <v>426.8036484831629</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,22 +8927,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>406.3208603431685</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>397.6712903607142</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>36.24326341397736</v>
       </c>
       <c r="P14" t="n">
-        <v>135.2898202839503</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9006,25 +9006,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>209.1142272203423</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>426.8036484831629</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>406.2665921010095</v>
+        <v>406.2665921010096</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>76.01184402426023</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,16 +9176,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>209.8106945277423</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>194.2912933752132</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>44.98621230703972</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,10 +9249,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>146.110113049011</v>
       </c>
       <c r="N18" t="n">
-        <v>146.1101130490111</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>18.83733600301373</v>
+        <v>116.9063171176897</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>44.98621230703972</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>209.1142272203423</v>
+        <v>123.0881390757406</v>
       </c>
       <c r="M21" t="n">
-        <v>426.8036484831629</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>406.2665921010095</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>39.41575736797162</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>38.80433279874012</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9650,13 +9650,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>44.98621230703972</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>464.5728816889491</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>205.639058751056</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>105.3458360607487</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9887,13 +9887,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>205.2189802401582</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>44.98621230703972</v>
@@ -9954,13 +9954,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,10 +9969,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>205.6390587510555</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.41611684853959</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>315.3141223209685</v>
+        <v>315.3141223209703</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>97.13702971096073</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.41611684853959</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>78.11947312386883</v>
+        <v>75.77276872418747</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10364,13 +10364,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>44.98621230703972</v>
+        <v>44.98621230703969</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>88.41611684853972</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10443,7 +10443,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>280.7878501480685</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>78.11947312386951</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>203.4875940455376</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>44.98621230703975</v>
+        <v>44.98621230703972</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>123.0881390757411</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,10 +10680,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>280.7878501480685</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>13.66077130752106</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10838,13 +10838,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>288.0877593840909</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>44.98621230703972</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>16.71303078486062</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>205.639058751056</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11075,10 +11075,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>288.0877593840909</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>118.9911442120179</v>
       </c>
       <c r="R41" t="n">
         <v>44.98621230703972</v>
@@ -11139,25 +11139,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.41611684854004</v>
+        <v>97.13702971096137</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>2.538659931080502</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>403.6359756245922</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11315,10 +11315,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>44.98621230703972</v>
+        <v>44.98621230703969</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,25 +11373,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>97.13702971096113</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>205.639058751056</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>301.9748715999007</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>301.1714000086819</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>66.37373550471038</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>89.66236153865351</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>268.4819986538331</v>
       </c>
       <c r="X11" t="n">
-        <v>147.3409246421445</v>
+        <v>288.9721306148891</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>305.4789685924737</v>
       </c>
     </row>
     <row r="12">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>156.0360970433643</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>312.6343608006335</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>170.3694150824821</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>246.993288406555</v>
       </c>
       <c r="W14" t="n">
-        <v>268.4819986538331</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>288.9721306148891</v>
       </c>
       <c r="Y14" t="n">
-        <v>305.4789685924737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>28.05915544379515</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>132.0548350215668</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23795,10 +23795,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>58.33162331443643</v>
+        <v>250.6575505539739</v>
       </c>
       <c r="Y17" t="n">
-        <v>267.1643885315584</v>
+        <v>178.8341408697931</v>
       </c>
     </row>
     <row r="18">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>206.893296313588</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>293.5133403684586</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24032,10 +24032,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>250.6575505539738</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>164.0375064991038</v>
       </c>
     </row>
     <row r="21">
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>42.41208119084968</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>42.41208119085117</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>42.41208119084939</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>39.83481214080732</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>2.577269050044606</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>899397.573141332</v>
+        <v>899397.5731413321</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>949672.5862080454</v>
+        <v>949672.5862080452</v>
       </c>
     </row>
     <row r="9">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1019611.147485593</v>
+        <v>1019611.147485594</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>512047.711698149</v>
       </c>
       <c r="C2" t="n">
-        <v>512047.7116981489</v>
+        <v>512047.711698149</v>
       </c>
       <c r="D2" t="n">
         <v>512731.8782494492</v>
       </c>
       <c r="E2" t="n">
-        <v>462457.3887186749</v>
+        <v>462457.3887186748</v>
       </c>
       <c r="F2" t="n">
-        <v>462457.3887186749</v>
+        <v>462457.3887186751</v>
       </c>
       <c r="G2" t="n">
+        <v>490387.9515335154</v>
+      </c>
+      <c r="H2" t="n">
         <v>490387.9515335152</v>
       </c>
-      <c r="H2" t="n">
-        <v>490387.9515335153</v>
-      </c>
       <c r="I2" t="n">
-        <v>513151.1061651766</v>
+        <v>513151.1061651767</v>
       </c>
       <c r="J2" t="n">
         <v>512514.9249473141</v>
       </c>
       <c r="K2" t="n">
-        <v>512514.9249473141</v>
+        <v>512514.924947314</v>
       </c>
       <c r="L2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="M2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651765</v>
       </c>
       <c r="N2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="O2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651765</v>
       </c>
       <c r="P2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651766</v>
       </c>
     </row>
     <row r="3">
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>30651.66404873227</v>
+        <v>30651.66404873219</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>31352.39609097835</v>
+        <v>31352.39609097844</v>
       </c>
       <c r="J3" t="n">
-        <v>72182.30382024279</v>
+        <v>72182.30382024287</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>32074.84049216874</v>
+        <v>32074.84049216869</v>
       </c>
       <c r="M3" t="n">
-        <v>160980.1905683146</v>
+        <v>160980.1905683145</v>
       </c>
       <c r="N3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32532.33555869514</v>
+        <v>32532.33555869525</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,7 +26433,7 @@
         <v>174412.9866526598</v>
       </c>
       <c r="H4" t="n">
-        <v>174412.9866526598</v>
+        <v>174412.9866526597</v>
       </c>
       <c r="I4" t="n">
         <v>187474.9172361169</v>
@@ -26448,7 +26448,7 @@
         <v>178187.9924915794</v>
       </c>
       <c r="M4" t="n">
-        <v>178187.9924915795</v>
+        <v>178187.9924915794</v>
       </c>
       <c r="N4" t="n">
         <v>178187.9924915794</v>
@@ -26482,22 +26482,22 @@
         <v>61210.18420721666</v>
       </c>
       <c r="G5" t="n">
-        <v>64431.25263835775</v>
+        <v>64431.25263835774</v>
       </c>
       <c r="H5" t="n">
-        <v>64431.25263835775</v>
+        <v>64431.25263835774</v>
       </c>
       <c r="I5" t="n">
-        <v>71599.64356021606</v>
+        <v>71599.64356021608</v>
       </c>
       <c r="J5" t="n">
-        <v>77442.7522863863</v>
+        <v>77442.75228638633</v>
       </c>
       <c r="K5" t="n">
-        <v>77442.75228638628</v>
+        <v>77442.75228638631</v>
       </c>
       <c r="L5" t="n">
-        <v>77174.24498081932</v>
+        <v>77174.24498081933</v>
       </c>
       <c r="M5" t="n">
         <v>77174.24498081932</v>
@@ -26509,7 +26509,7 @@
         <v>77174.24498081931</v>
       </c>
       <c r="P5" t="n">
-        <v>77174.24498081931</v>
+        <v>77174.24498081932</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58272.34280861772</v>
+        <v>58267.92923074961</v>
       </c>
       <c r="C6" t="n">
-        <v>58272.34280861766</v>
+        <v>58267.92923074961</v>
       </c>
       <c r="D6" t="n">
-        <v>56604.18781136278</v>
+        <v>56602.51089969981</v>
       </c>
       <c r="E6" t="n">
-        <v>-548086.1439711349</v>
+        <v>-548288.9188409209</v>
       </c>
       <c r="F6" t="n">
-        <v>252148.2301730394</v>
+        <v>251945.4553032535</v>
       </c>
       <c r="G6" t="n">
-        <v>220892.0481937655</v>
+        <v>220800.995575239</v>
       </c>
       <c r="H6" t="n">
-        <v>251543.7122424978</v>
+        <v>251452.659623971</v>
       </c>
       <c r="I6" t="n">
         <v>222724.1492778653</v>
       </c>
       <c r="J6" t="n">
-        <v>185737.8301362802</v>
+        <v>185735.2854114086</v>
       </c>
       <c r="K6" t="n">
-        <v>257920.133956523</v>
+        <v>257917.5892316515</v>
       </c>
       <c r="L6" t="n">
-        <v>225714.0282006092</v>
+        <v>225714.0282006093</v>
       </c>
       <c r="M6" t="n">
-        <v>96808.67812446327</v>
+        <v>96808.67812446321</v>
       </c>
       <c r="N6" t="n">
-        <v>257788.8686927778</v>
+        <v>257788.8686927781</v>
       </c>
       <c r="O6" t="n">
-        <v>225256.533134083</v>
+        <v>225256.5331340826</v>
       </c>
       <c r="P6" t="n">
-        <v>257788.868692778</v>
+        <v>257788.8686927779</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="F2" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="G2" t="n">
         <v>119.0735501244952</v>
@@ -26707,22 +26707,22 @@
         <v>119.0735501244952</v>
       </c>
       <c r="J2" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="K2" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="L2" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="M2" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="N2" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="O2" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="P2" t="n">
         <v>80.75897006357992</v>
@@ -26765,10 +26765,10 @@
         <v>675.5669467675837</v>
       </c>
       <c r="L3" t="n">
+        <v>675.5669467675838</v>
+      </c>
+      <c r="M3" t="n">
         <v>675.5669467675837</v>
-      </c>
-      <c r="M3" t="n">
-        <v>675.5669467675835</v>
       </c>
       <c r="N3" t="n">
         <v>675.5669467675837</v>
@@ -26777,7 +26777,7 @@
         <v>675.5669467675837</v>
       </c>
       <c r="P3" t="n">
-        <v>675.5669467675837</v>
+        <v>675.5669467675838</v>
       </c>
     </row>
     <row r="4">
@@ -26808,28 +26808,28 @@
         <v>652.8536005494776</v>
       </c>
       <c r="I4" t="n">
-        <v>770.7547670274104</v>
+        <v>770.7547670274107</v>
       </c>
       <c r="J4" t="n">
-        <v>922.2964353307063</v>
+        <v>922.2964353307069</v>
       </c>
       <c r="K4" t="n">
-        <v>922.2964353307062</v>
+        <v>922.2964353307067</v>
       </c>
       <c r="L4" t="n">
+        <v>915.4203895889952</v>
+      </c>
+      <c r="M4" t="n">
+        <v>915.4203895889951</v>
+      </c>
+      <c r="N4" t="n">
+        <v>915.4203895889951</v>
+      </c>
+      <c r="O4" t="n">
         <v>915.4203895889949</v>
       </c>
-      <c r="M4" t="n">
-        <v>915.420389588995</v>
-      </c>
-      <c r="N4" t="n">
-        <v>915.4203895889948</v>
-      </c>
-      <c r="O4" t="n">
-        <v>915.4203895889948</v>
-      </c>
       <c r="P4" t="n">
-        <v>915.4203895889948</v>
+        <v>915.4203895889949</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.31458006091533</v>
+        <v>38.31458006091523</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.66541944836901</v>
+        <v>40.66541944836905</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>40.09355061521093</v>
+        <v>40.09355061521086</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.66541944836892</v>
+        <v>40.66541944836906</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>117.9011664779327</v>
+        <v>117.9011664779331</v>
       </c>
       <c r="J4" t="n">
-        <v>151.541668303296</v>
+        <v>151.5416683032962</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>645.9775548077663</v>
+        <v>645.9775548077661</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31458006091533</v>
+        <v>38.31458006091523</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.66541944836901</v>
+        <v>40.66541944836905</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>5.073243612901081</v>
+        <v>5.892868265313084</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>3.114653472833368</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>202.9636484969459</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27935,13 +27935,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>142.1352358015972</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>152.3352506923594</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>138.1931666516724</v>
       </c>
       <c r="G9" t="n">
         <v>130.4674714214992</v>
@@ -27950,7 +27950,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>82.52058710970364</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>93.2817884109317</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27992,7 +27992,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>244.8189374192082</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>164.6559990042658</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28032,10 +28032,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>86.48313437496134</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>15.39344608417142</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>79.28599750998295</v>
       </c>
       <c r="R10" t="n">
-        <v>170.417345635458</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>217.1405522952608</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>224.6106090740886</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="C11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="D11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="E11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="F11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="G11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="H11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="I11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="T11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="U11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="V11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="W11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="X11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="Y11" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
     </row>
     <row r="12">
@@ -28184,7 +28184,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="C13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="D13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="E13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="F13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="G13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="H13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="I13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="J13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="K13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="L13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="M13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="N13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="O13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="P13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="Q13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="R13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="S13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="T13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="U13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="V13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="W13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="X13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="Y13" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="C14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="D14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="E14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="F14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="G14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="H14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="I14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="T14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="U14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="V14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="W14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="X14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="Y14" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="C16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="D16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="E16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="F16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="G16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="H16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="I16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="J16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="K16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="L16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="M16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="N16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="O16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="P16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="R16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="S16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="T16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="U16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="V16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="W16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="X16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="Y16" t="n">
-        <v>80.75897006357991</v>
+        <v>80.75897006357992</v>
       </c>
     </row>
     <row r="17">
@@ -28740,10 +28740,10 @@
         <v>119.0735501244952</v>
       </c>
       <c r="I19" t="n">
-        <v>118.8148116500916</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="J19" t="n">
-        <v>20.85541268674183</v>
+        <v>20.5966742123392</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>-3.801403636316536e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>119.0735501244952</v>
       </c>
       <c r="J22" t="n">
-        <v>20.59667421233819</v>
+        <v>20.5966742123392</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29214,16 +29214,16 @@
         <v>119.0735501244952</v>
       </c>
       <c r="I25" t="n">
-        <v>118.8148116500916</v>
+        <v>119.0735501244952</v>
       </c>
       <c r="J25" t="n">
-        <v>7.229931837795775</v>
+        <v>20.59667421233937</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>13.62548084894604</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="C26" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="D26" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="E26" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="F26" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="G26" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="H26" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="I26" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="T26" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="U26" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="V26" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="W26" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="X26" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="Y26" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="C28" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="D28" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="E28" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="F28" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="G28" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="H28" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="I28" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="J28" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="K28" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="L28" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="M28" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="N28" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="O28" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="P28" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="R28" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="S28" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="T28" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="U28" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="V28" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="W28" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="X28" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="Y28" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="C29" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="D29" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="E29" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="F29" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="G29" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="H29" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="I29" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="T29" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="U29" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="V29" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="W29" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="X29" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="Y29" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="C31" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="D31" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="E31" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="F31" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="G31" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="H31" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="I31" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="J31" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="K31" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="L31" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="M31" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="N31" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="O31" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="P31" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="R31" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="S31" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="T31" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="U31" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="V31" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="W31" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="X31" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
       <c r="Y31" t="n">
-        <v>78.97999950928434</v>
+        <v>78.97999950928428</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="C32" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="D32" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="E32" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="F32" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="G32" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="H32" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="I32" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="T32" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="U32" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="V32" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="W32" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="X32" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="Y32" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="C34" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="D34" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="E34" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="F34" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="G34" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="H34" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="I34" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="J34" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="K34" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="L34" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="M34" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="N34" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="O34" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="P34" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="R34" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="S34" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="T34" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="U34" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="V34" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="W34" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="X34" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="Y34" t="n">
-        <v>80.75897006357994</v>
+        <v>80.75897006357991</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="C35" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="D35" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="E35" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="F35" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="G35" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="H35" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="I35" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="T35" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="U35" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="V35" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="W35" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="X35" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="Y35" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="C37" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="D37" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="E37" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="F37" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="G37" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="H37" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="I37" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="J37" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="K37" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="L37" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357982</v>
       </c>
       <c r="M37" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="N37" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="O37" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="P37" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="Q37" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="R37" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="S37" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="T37" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="U37" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="V37" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="W37" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="X37" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="Y37" t="n">
-        <v>80.75897006357995</v>
+        <v>80.75897006357991</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="C38" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="D38" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="E38" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="F38" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="G38" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="H38" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="I38" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="T38" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="U38" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="V38" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="W38" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="X38" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="Y38" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="C40" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="D40" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="E40" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="F40" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="G40" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="H40" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="I40" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="J40" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="K40" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="L40" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="M40" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="N40" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="O40" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="P40" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="Q40" t="n">
-        <v>80.75897006357758</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="R40" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="S40" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="T40" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="U40" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="V40" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="W40" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="X40" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
       <c r="Y40" t="n">
-        <v>80.75897006358001</v>
+        <v>80.75897006357989</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="C41" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="D41" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="E41" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="F41" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="G41" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="H41" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="I41" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="T41" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="U41" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="V41" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="W41" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="X41" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="Y41" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="C43" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="D43" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="E43" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="F43" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="G43" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="H43" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="I43" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="J43" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357988</v>
       </c>
       <c r="K43" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="L43" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="M43" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="N43" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="O43" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="P43" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="Q43" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="R43" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="S43" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="T43" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="U43" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="V43" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="W43" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="X43" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.75897006357992</v>
+        <v>80.75897006357991</v>
       </c>
     </row>
     <row r="44">
@@ -30888,7 +30888,7 @@
         <v>80.75897006357992</v>
       </c>
       <c r="N46" t="n">
-        <v>80.75897006357965</v>
+        <v>80.75897006357992</v>
       </c>
       <c r="O46" t="n">
         <v>80.75897006357992</v>
@@ -33418,19 +33418,19 @@
         <v>104.7026923226423</v>
       </c>
       <c r="J32" t="n">
-        <v>230.5041211988551</v>
+        <v>230.5041211988552</v>
       </c>
       <c r="K32" t="n">
-        <v>345.465925647787</v>
+        <v>345.4659256477871</v>
       </c>
       <c r="L32" t="n">
-        <v>428.5810289528662</v>
+        <v>428.5810289528663</v>
       </c>
       <c r="M32" t="n">
         <v>476.8789734335818</v>
       </c>
       <c r="N32" t="n">
-        <v>484.5953737853543</v>
+        <v>484.5953737853544</v>
       </c>
       <c r="O32" t="n">
         <v>457.5896699585396</v>
@@ -33445,7 +33445,7 @@
         <v>170.5993255070924</v>
       </c>
       <c r="S32" t="n">
-        <v>61.88736401795504</v>
+        <v>61.88736401795505</v>
       </c>
       <c r="T32" t="n">
         <v>11.88862033959838</v>
@@ -33503,7 +33503,7 @@
         <v>234.6447950862465</v>
       </c>
       <c r="L33" t="n">
-        <v>315.5088839597097</v>
+        <v>315.5088839597098</v>
       </c>
       <c r="M33" t="n">
         <v>368.1839859883331</v>
@@ -33512,25 +33512,25 @@
         <v>377.9287205318014</v>
       </c>
       <c r="O33" t="n">
-        <v>345.730944917935</v>
+        <v>345.7309449179351</v>
       </c>
       <c r="P33" t="n">
-        <v>277.4795634751609</v>
+        <v>277.479563475161</v>
       </c>
       <c r="Q33" t="n">
         <v>185.4877397992807</v>
       </c>
       <c r="R33" t="n">
-        <v>90.22005375888602</v>
+        <v>90.22005375888604</v>
       </c>
       <c r="S33" t="n">
-        <v>26.99081150528976</v>
+        <v>26.99081150528977</v>
       </c>
       <c r="T33" t="n">
-        <v>5.857037963013294</v>
+        <v>5.857037963013295</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09559909624069585</v>
+        <v>0.09559909624069586</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33576,10 +33576,10 @@
         <v>36.63566327716668</v>
       </c>
       <c r="J34" t="n">
-        <v>86.129248278877</v>
+        <v>86.12924827887701</v>
       </c>
       <c r="K34" t="n">
-        <v>141.5368127817986</v>
+        <v>141.5368127817987</v>
       </c>
       <c r="L34" t="n">
         <v>181.1183909415912</v>
@@ -33594,19 +33594,19 @@
         <v>172.1920473498753</v>
       </c>
       <c r="P34" t="n">
-        <v>147.3400436032119</v>
+        <v>147.340043603212</v>
       </c>
       <c r="Q34" t="n">
         <v>102.0106089619051</v>
       </c>
       <c r="R34" t="n">
-        <v>54.77629702807324</v>
+        <v>54.77629702807325</v>
       </c>
       <c r="S34" t="n">
         <v>21.23052191726979</v>
       </c>
       <c r="T34" t="n">
-        <v>5.205187950504331</v>
+        <v>5.205187950504332</v>
       </c>
       <c r="U34" t="n">
         <v>0.0664492078787788</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.715847022181238</v>
+        <v>2.715847022181239</v>
       </c>
       <c r="H35" t="n">
-        <v>27.81366831591361</v>
+        <v>27.81366831591362</v>
       </c>
       <c r="I35" t="n">
         <v>104.7026923226423</v>
@@ -33658,37 +33658,37 @@
         <v>230.5041211988551</v>
       </c>
       <c r="K35" t="n">
-        <v>345.4659256477869</v>
+        <v>345.465925647787</v>
       </c>
       <c r="L35" t="n">
-        <v>428.5810289528661</v>
+        <v>428.5810289528662</v>
       </c>
       <c r="M35" t="n">
-        <v>476.8789734335817</v>
+        <v>476.8789734335818</v>
       </c>
       <c r="N35" t="n">
-        <v>484.5953737853542</v>
+        <v>484.5953737853543</v>
       </c>
       <c r="O35" t="n">
-        <v>457.5896699585395</v>
+        <v>457.5896699585396</v>
       </c>
       <c r="P35" t="n">
-        <v>390.5421965984401</v>
+        <v>390.5421965984402</v>
       </c>
       <c r="Q35" t="n">
-        <v>293.2809251165744</v>
+        <v>293.2809251165745</v>
       </c>
       <c r="R35" t="n">
         <v>170.5993255070924</v>
       </c>
       <c r="S35" t="n">
-        <v>61.88736401795503</v>
+        <v>61.88736401795504</v>
       </c>
       <c r="T35" t="n">
         <v>11.88862033959838</v>
       </c>
       <c r="U35" t="n">
-        <v>0.217267761774499</v>
+        <v>0.2172677617744991</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,10 +33728,10 @@
         <v>1.453106262858576</v>
       </c>
       <c r="H36" t="n">
-        <v>14.03394732813414</v>
+        <v>14.03394732813415</v>
       </c>
       <c r="I36" t="n">
-        <v>50.03019369929747</v>
+        <v>50.03019369929748</v>
       </c>
       <c r="J36" t="n">
         <v>137.2866754747219</v>
@@ -33743,13 +33743,13 @@
         <v>315.5088839597097</v>
       </c>
       <c r="M36" t="n">
-        <v>368.183985988333</v>
+        <v>368.1839859883331</v>
       </c>
       <c r="N36" t="n">
-        <v>377.9287205318013</v>
+        <v>377.9287205318014</v>
       </c>
       <c r="O36" t="n">
-        <v>345.7309449179349</v>
+        <v>345.730944917935</v>
       </c>
       <c r="P36" t="n">
         <v>277.4795634751609</v>
@@ -33758,16 +33758,16 @@
         <v>185.4877397992807</v>
       </c>
       <c r="R36" t="n">
-        <v>90.22005375888601</v>
+        <v>90.22005375888602</v>
       </c>
       <c r="S36" t="n">
         <v>26.99081150528976</v>
       </c>
       <c r="T36" t="n">
-        <v>5.857037963013293</v>
+        <v>5.857037963013294</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09559909624069582</v>
+        <v>0.09559909624069585</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33804,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.218235477777609</v>
+        <v>1.21823547777761</v>
       </c>
       <c r="H37" t="n">
         <v>10.83122088424094</v>
       </c>
       <c r="I37" t="n">
-        <v>36.63566327716667</v>
+        <v>36.63566327716668</v>
       </c>
       <c r="J37" t="n">
-        <v>86.12924827887699</v>
+        <v>86.129248278877</v>
       </c>
       <c r="K37" t="n">
         <v>141.5368127817986</v>
@@ -33837,16 +33837,16 @@
         <v>102.0106089619051</v>
       </c>
       <c r="R37" t="n">
-        <v>54.77629702807323</v>
+        <v>54.77629702807324</v>
       </c>
       <c r="S37" t="n">
         <v>21.23052191726979</v>
       </c>
       <c r="T37" t="n">
-        <v>5.20518795050433</v>
+        <v>5.205187950504331</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06644920787877878</v>
+        <v>0.0664492078787788</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34366,19 +34366,19 @@
         <v>104.7026923226423</v>
       </c>
       <c r="J44" t="n">
-        <v>230.5041211988551</v>
+        <v>230.5041211988552</v>
       </c>
       <c r="K44" t="n">
-        <v>345.465925647787</v>
+        <v>345.4659256477871</v>
       </c>
       <c r="L44" t="n">
-        <v>428.5810289528662</v>
+        <v>428.5810289528663</v>
       </c>
       <c r="M44" t="n">
         <v>476.8789734335818</v>
       </c>
       <c r="N44" t="n">
-        <v>484.5953737853543</v>
+        <v>484.5953737853544</v>
       </c>
       <c r="O44" t="n">
         <v>457.5896699585396</v>
@@ -34393,7 +34393,7 @@
         <v>170.5993255070924</v>
       </c>
       <c r="S44" t="n">
-        <v>61.88736401795504</v>
+        <v>61.88736401795505</v>
       </c>
       <c r="T44" t="n">
         <v>11.88862033959838</v>
@@ -34451,7 +34451,7 @@
         <v>234.6447950862465</v>
       </c>
       <c r="L45" t="n">
-        <v>315.5088839597097</v>
+        <v>315.5088839597098</v>
       </c>
       <c r="M45" t="n">
         <v>368.1839859883331</v>
@@ -34460,25 +34460,25 @@
         <v>377.9287205318014</v>
       </c>
       <c r="O45" t="n">
-        <v>345.730944917935</v>
+        <v>345.7309449179351</v>
       </c>
       <c r="P45" t="n">
-        <v>277.4795634751609</v>
+        <v>277.479563475161</v>
       </c>
       <c r="Q45" t="n">
         <v>185.4877397992807</v>
       </c>
       <c r="R45" t="n">
-        <v>90.22005375888602</v>
+        <v>90.22005375888604</v>
       </c>
       <c r="S45" t="n">
-        <v>26.99081150528976</v>
+        <v>26.99081150528977</v>
       </c>
       <c r="T45" t="n">
-        <v>5.857037963013294</v>
+        <v>5.857037963013295</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09559909624069585</v>
+        <v>0.09559909624069586</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34524,10 +34524,10 @@
         <v>36.63566327716668</v>
       </c>
       <c r="J46" t="n">
-        <v>86.129248278877</v>
+        <v>86.12924827887701</v>
       </c>
       <c r="K46" t="n">
-        <v>141.5368127817986</v>
+        <v>141.5368127817987</v>
       </c>
       <c r="L46" t="n">
         <v>181.1183909415912</v>
@@ -34542,19 +34542,19 @@
         <v>172.1920473498753</v>
       </c>
       <c r="P46" t="n">
-        <v>147.3400436032119</v>
+        <v>147.340043603212</v>
       </c>
       <c r="Q46" t="n">
         <v>102.0106089619051</v>
       </c>
       <c r="R46" t="n">
-        <v>54.77629702807324</v>
+        <v>54.77629702807325</v>
       </c>
       <c r="S46" t="n">
         <v>21.23052191726979</v>
       </c>
       <c r="T46" t="n">
-        <v>5.205187950504331</v>
+        <v>5.205187950504332</v>
       </c>
       <c r="U46" t="n">
         <v>0.0664492078787788</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="N8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="M8" t="n">
-        <v>6.598225711743297</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M9" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,10 +35410,10 @@
         <v>49.45821667216885</v>
       </c>
       <c r="K11" t="n">
-        <v>447.6286156110421</v>
+        <v>449.5214871739712</v>
       </c>
       <c r="L11" t="n">
-        <v>192.814613982879</v>
+        <v>211.6519499858928</v>
       </c>
       <c r="M11" t="n">
         <v>246.5327402063091</v>
@@ -35431,7 +35431,7 @@
         <v>283.2902259020296</v>
       </c>
       <c r="R11" t="n">
-        <v>20.73020756594272</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>10.44904880805521</v>
+        <v>136.540084148464</v>
       </c>
       <c r="K12" t="n">
-        <v>96.80335611188752</v>
+        <v>361.2685931244661</v>
       </c>
       <c r="L12" t="n">
-        <v>547.7948494832947</v>
+        <v>267.1013140491434</v>
       </c>
       <c r="M12" t="n">
-        <v>578.9313059274334</v>
+        <v>652.8536005494776</v>
       </c>
       <c r="N12" t="n">
         <v>246.5870084484681</v>
       </c>
       <c r="O12" t="n">
-        <v>596.99701975022</v>
+        <v>203.1347004734906</v>
       </c>
       <c r="P12" t="n">
         <v>461.9679247007679</v>
       </c>
       <c r="Q12" t="n">
-        <v>45.5059657132592</v>
+        <v>255.5832534491083</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>73.52903822578413</v>
+        <v>73.52903822578415</v>
       </c>
       <c r="K13" t="n">
         <v>200.0262910194957</v>
       </c>
       <c r="L13" t="n">
-        <v>289.4673862654872</v>
+        <v>289.4673862654873</v>
       </c>
       <c r="M13" t="n">
         <v>311.3067956010507</v>
@@ -35586,7 +35586,7 @@
         <v>225.3775729316853</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.60753577379066</v>
+        <v>96.60753577379067</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>49.45821667216885</v>
       </c>
       <c r="K14" t="n">
-        <v>449.5214871739712</v>
+        <v>125.3760746028065</v>
       </c>
       <c r="L14" t="n">
         <v>610.4758285333294</v>
       </c>
       <c r="M14" t="n">
-        <v>246.5327402063091</v>
+        <v>652.8536005494776</v>
       </c>
       <c r="N14" t="n">
-        <v>255.1823101887634</v>
+        <v>652.8536005494776</v>
       </c>
       <c r="O14" t="n">
-        <v>608.2916397995982</v>
+        <v>263.7347219508302</v>
       </c>
       <c r="P14" t="n">
-        <v>294.599021127121</v>
+        <v>159.3092008431706</v>
       </c>
       <c r="Q14" t="n">
         <v>70.97523524212497</v>
@@ -35726,25 +35726,25 @@
         <v>10.44904880805521</v>
       </c>
       <c r="K15" t="n">
-        <v>96.80335611188752</v>
+        <v>361.2685931244661</v>
       </c>
       <c r="L15" t="n">
-        <v>386.0687314001779</v>
+        <v>547.7948494832947</v>
       </c>
       <c r="M15" t="n">
-        <v>652.8536005494776</v>
+        <v>226.0499520663147</v>
       </c>
       <c r="N15" t="n">
         <v>652.8536005494776</v>
       </c>
       <c r="O15" t="n">
-        <v>596.99701975022</v>
+        <v>203.1347004734906</v>
       </c>
       <c r="P15" t="n">
-        <v>143.5051560608307</v>
+        <v>461.9679247007679</v>
       </c>
       <c r="Q15" t="n">
-        <v>45.5059657132592</v>
+        <v>121.5178097375194</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>73.52903822578413</v>
+        <v>73.52903822578415</v>
       </c>
       <c r="K16" t="n">
         <v>200.0262910194957</v>
       </c>
       <c r="L16" t="n">
-        <v>289.4673862654872</v>
+        <v>289.4673862654873</v>
       </c>
       <c r="M16" t="n">
         <v>311.3067956010507</v>
@@ -35823,7 +35823,7 @@
         <v>225.3775729316853</v>
       </c>
       <c r="Q16" t="n">
-        <v>96.60753577379066</v>
+        <v>96.60753577379067</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>218.5548318442426</v>
+        <v>49.45821667216885</v>
       </c>
       <c r="K17" t="n">
         <v>449.5214871739712</v>
       </c>
       <c r="L17" t="n">
-        <v>192.814613982879</v>
+        <v>610.4758285333294</v>
       </c>
       <c r="M17" t="n">
         <v>246.5327402063091</v>
@@ -35896,16 +35896,16 @@
         <v>255.1823101887634</v>
       </c>
       <c r="O17" t="n">
-        <v>437.3021530645951</v>
+        <v>227.4914585368528</v>
       </c>
       <c r="P17" t="n">
         <v>481.1079090146533</v>
       </c>
       <c r="Q17" t="n">
-        <v>283.2902259020296</v>
+        <v>265.2665286173382</v>
       </c>
       <c r="R17" t="n">
-        <v>20.73020756594272</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>547.7948494832947</v>
       </c>
       <c r="M18" t="n">
-        <v>226.0499520663147</v>
+        <v>372.1600651153258</v>
       </c>
       <c r="N18" t="n">
-        <v>392.6971214974791</v>
+        <v>246.5870084484681</v>
       </c>
       <c r="O18" t="n">
         <v>203.1347004734906</v>
@@ -36036,10 +36036,10 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.2587384744035504</v>
       </c>
       <c r="J19" t="n">
-        <v>13.62548084894605</v>
+        <v>13.36674237454342</v>
       </c>
       <c r="K19" t="n">
         <v>119.2673209559158</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>68.29555267518258</v>
+        <v>166.3645337898585</v>
       </c>
       <c r="K20" t="n">
-        <v>449.5214871739712</v>
+        <v>125.3760746028065</v>
       </c>
       <c r="L20" t="n">
-        <v>192.814613982879</v>
+        <v>610.4758285333294</v>
       </c>
       <c r="M20" t="n">
         <v>246.5327402063091</v>
@@ -36139,10 +36139,10 @@
         <v>481.1079090146533</v>
       </c>
       <c r="Q20" t="n">
-        <v>283.2902259020296</v>
+        <v>70.97523524212497</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>20.73020756594272</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>10.44904880805521</v>
+        <v>136.540084148464</v>
       </c>
       <c r="K21" t="n">
-        <v>96.80335611188752</v>
+        <v>361.2685931244661</v>
       </c>
       <c r="L21" t="n">
-        <v>386.0687314001779</v>
+        <v>300.0426432555762</v>
       </c>
       <c r="M21" t="n">
-        <v>652.8536005494776</v>
+        <v>226.0499520663147</v>
       </c>
       <c r="N21" t="n">
-        <v>652.8536005494776</v>
+        <v>246.5870084484681</v>
       </c>
       <c r="O21" t="n">
         <v>596.99701975022</v>
       </c>
       <c r="P21" t="n">
-        <v>143.5051560608307</v>
+        <v>461.9679247007679</v>
       </c>
       <c r="Q21" t="n">
-        <v>45.5059657132592</v>
+        <v>255.5832534491083</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36273,10 +36273,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2587384744036356</v>
+        <v>0.2587384744035504</v>
       </c>
       <c r="J22" t="n">
-        <v>13.36674237454242</v>
+        <v>13.36674237454342</v>
       </c>
       <c r="K22" t="n">
         <v>119.2673209559158</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>88.87397404014047</v>
+        <v>218.5548318442426</v>
       </c>
       <c r="K23" t="n">
-        <v>125.3760746028065</v>
+        <v>164.1804074015466</v>
       </c>
       <c r="L23" t="n">
         <v>610.4758285333294</v>
@@ -36370,13 +36370,13 @@
         <v>692.5292346007475</v>
       </c>
       <c r="O23" t="n">
-        <v>608.2916397995982</v>
+        <v>227.4914585368528</v>
       </c>
       <c r="P23" t="n">
         <v>159.3092008431706</v>
       </c>
       <c r="Q23" t="n">
-        <v>70.97523524212497</v>
+        <v>283.2902259020296</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>136.540084148464</v>
+        <v>10.44904880805521</v>
       </c>
       <c r="K24" t="n">
-        <v>361.2685931244661</v>
+        <v>96.80335611188752</v>
       </c>
       <c r="L24" t="n">
         <v>547.7948494832947</v>
       </c>
       <c r="M24" t="n">
-        <v>690.6228337552639</v>
+        <v>691.7550158163147</v>
       </c>
       <c r="N24" t="n">
         <v>246.5870084484681</v>
       </c>
       <c r="O24" t="n">
-        <v>203.1347004734906</v>
+        <v>596.99701975022</v>
       </c>
       <c r="P24" t="n">
-        <v>143.5051560608307</v>
+        <v>349.1442148118867</v>
       </c>
       <c r="Q24" t="n">
-        <v>255.5832534491083</v>
+        <v>45.5059657132592</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36510,16 +36510,16 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.2587384744035504</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>13.36674237454359</v>
       </c>
       <c r="K25" t="n">
         <v>119.2673209559158</v>
       </c>
       <c r="L25" t="n">
-        <v>222.3338970508534</v>
+        <v>208.7084162019073</v>
       </c>
       <c r="M25" t="n">
         <v>230.5478255374708</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>218.5548318442426</v>
+        <v>154.8040527329175</v>
       </c>
       <c r="K26" t="n">
-        <v>449.5214871739712</v>
+        <v>125.3760746028065</v>
       </c>
       <c r="L26" t="n">
         <v>610.4758285333294</v>
@@ -36607,13 +36607,13 @@
         <v>692.5292346007475</v>
       </c>
       <c r="O26" t="n">
-        <v>227.4914585368528</v>
+        <v>608.2916397995982</v>
       </c>
       <c r="P26" t="n">
         <v>481.1079090146533</v>
       </c>
       <c r="Q26" t="n">
-        <v>276.1942154822831</v>
+        <v>283.2902259020296</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>10.44904880805521</v>
       </c>
       <c r="K27" t="n">
-        <v>361.2685931244661</v>
+        <v>96.80335611188752</v>
       </c>
       <c r="L27" t="n">
         <v>547.7948494832947</v>
       </c>
       <c r="M27" t="n">
-        <v>226.0499520663147</v>
+        <v>691.7550158163147</v>
       </c>
       <c r="N27" t="n">
         <v>246.5870084484681</v>
@@ -36689,10 +36689,10 @@
         <v>596.99701975022</v>
       </c>
       <c r="P27" t="n">
-        <v>461.9679247007679</v>
+        <v>349.1442148118862</v>
       </c>
       <c r="Q27" t="n">
-        <v>133.9220825617988</v>
+        <v>45.5059657132592</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>71.75006767148857</v>
+        <v>71.75006767148851</v>
       </c>
       <c r="K28" t="n">
         <v>198.2473204652001</v>
       </c>
       <c r="L28" t="n">
-        <v>287.6884157111917</v>
+        <v>287.6884157111916</v>
       </c>
       <c r="M28" t="n">
         <v>309.5278250467551</v>
       </c>
       <c r="N28" t="n">
-        <v>309.5354245924268</v>
+        <v>309.5354245924267</v>
       </c>
       <c r="O28" t="n">
         <v>275.7571747731993</v>
       </c>
       <c r="P28" t="n">
-        <v>223.5986023773898</v>
+        <v>223.5986023773897</v>
       </c>
       <c r="Q28" t="n">
-        <v>94.82856521949509</v>
+        <v>94.82856521949503</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>608.2916397995982</v>
       </c>
       <c r="P29" t="n">
-        <v>474.6233231641391</v>
+        <v>474.623323164141</v>
       </c>
       <c r="Q29" t="n">
         <v>70.97523524212497</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>10.44904880805521</v>
+        <v>107.5860785190159</v>
       </c>
       <c r="K30" t="n">
-        <v>361.2685931244661</v>
+        <v>96.80335611188752</v>
       </c>
       <c r="L30" t="n">
-        <v>547.7948494832947</v>
+        <v>176.9545041798356</v>
       </c>
       <c r="M30" t="n">
-        <v>226.0499520663147</v>
+        <v>691.7550158163147</v>
       </c>
       <c r="N30" t="n">
-        <v>246.5870084484681</v>
+        <v>725.9293827920217</v>
       </c>
       <c r="O30" t="n">
         <v>596.99701975022</v>
       </c>
       <c r="P30" t="n">
-        <v>461.9679247007679</v>
+        <v>143.5051560608307</v>
       </c>
       <c r="Q30" t="n">
-        <v>133.9220825617988</v>
+        <v>45.5059657132592</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>71.75006767148857</v>
+        <v>71.75006767148851</v>
       </c>
       <c r="K31" t="n">
         <v>198.2473204652001</v>
       </c>
       <c r="L31" t="n">
-        <v>287.6884157111917</v>
+        <v>287.6884157111916</v>
       </c>
       <c r="M31" t="n">
         <v>309.5278250467551</v>
       </c>
       <c r="N31" t="n">
-        <v>309.5354245924268</v>
+        <v>309.5354245924267</v>
       </c>
       <c r="O31" t="n">
         <v>275.7571747731993</v>
       </c>
       <c r="P31" t="n">
-        <v>223.5986023773898</v>
+        <v>223.5986023773897</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.82856521949509</v>
+        <v>94.82856521949503</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>127.5776897960377</v>
+        <v>125.2309853963563</v>
       </c>
       <c r="K32" t="n">
-        <v>125.3760746028065</v>
+        <v>449.5214871739713</v>
       </c>
       <c r="L32" t="n">
-        <v>610.4758285333294</v>
+        <v>610.4758285333295</v>
       </c>
       <c r="M32" t="n">
         <v>696.0462736991416</v>
       </c>
       <c r="N32" t="n">
-        <v>692.5292346007475</v>
+        <v>692.5292346007476</v>
       </c>
       <c r="O32" t="n">
         <v>608.2916397995982</v>
       </c>
       <c r="P32" t="n">
-        <v>481.1079090146533</v>
+        <v>159.3092008431707</v>
       </c>
       <c r="Q32" t="n">
-        <v>283.2902259020296</v>
+        <v>283.2902259020297</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>136.540084148464</v>
+        <v>98.86516565659495</v>
       </c>
       <c r="K33" t="n">
-        <v>361.2685931244661</v>
+        <v>361.2685931244662</v>
       </c>
       <c r="L33" t="n">
-        <v>547.7948494832947</v>
+        <v>547.7948494832948</v>
       </c>
       <c r="M33" t="n">
-        <v>226.0499520663147</v>
+        <v>226.0499520663148</v>
       </c>
       <c r="N33" t="n">
         <v>246.5870084484681</v>
       </c>
       <c r="O33" t="n">
-        <v>596.99701975022</v>
+        <v>596.9970197502201</v>
       </c>
       <c r="P33" t="n">
-        <v>424.2930062088992</v>
+        <v>461.9679247007679</v>
       </c>
       <c r="Q33" t="n">
-        <v>45.5059657132592</v>
+        <v>45.50596571325923</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.52903822578416</v>
+        <v>73.52903822578415</v>
       </c>
       <c r="K34" t="n">
         <v>200.0262910194957</v>
@@ -37245,7 +37245,7 @@
         <v>225.3775729316854</v>
       </c>
       <c r="Q34" t="n">
-        <v>96.60753577379069</v>
+        <v>96.60753577379067</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>127.5776897960383</v>
+        <v>49.45821667216885</v>
       </c>
       <c r="K35" t="n">
-        <v>125.3760746028064</v>
+        <v>449.5214871739712</v>
       </c>
       <c r="L35" t="n">
         <v>610.4758285333294</v>
       </c>
       <c r="M35" t="n">
-        <v>696.0462736991415</v>
+        <v>450.0203342518466</v>
       </c>
       <c r="N35" t="n">
         <v>692.5292346007475</v>
       </c>
       <c r="O35" t="n">
-        <v>608.2916397995981</v>
+        <v>608.2916397995982</v>
       </c>
       <c r="P35" t="n">
-        <v>481.1079090146532</v>
+        <v>481.1079090146533</v>
       </c>
       <c r="Q35" t="n">
         <v>283.2902259020296</v>
@@ -37388,22 +37388,22 @@
         <v>361.2685931244661</v>
       </c>
       <c r="L36" t="n">
-        <v>547.7948494832947</v>
+        <v>300.0426432555766</v>
       </c>
       <c r="M36" t="n">
         <v>226.0499520663147</v>
       </c>
       <c r="N36" t="n">
-        <v>246.587008448468</v>
+        <v>246.5870084484681</v>
       </c>
       <c r="O36" t="n">
         <v>596.99701975022</v>
       </c>
       <c r="P36" t="n">
-        <v>424.2930062088992</v>
+        <v>461.9679247007679</v>
       </c>
       <c r="Q36" t="n">
-        <v>45.50596571325917</v>
+        <v>255.5832534491083</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.52903822578416</v>
+        <v>73.52903822578413</v>
       </c>
       <c r="K37" t="n">
         <v>200.0262910194957</v>
       </c>
       <c r="L37" t="n">
-        <v>289.4673862654873</v>
+        <v>289.4673862654872</v>
       </c>
       <c r="M37" t="n">
         <v>311.3067956010507</v>
@@ -37482,7 +37482,7 @@
         <v>225.3775729316853</v>
       </c>
       <c r="Q37" t="n">
-        <v>96.60753577379067</v>
+        <v>96.60753577379066</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>49.45821667216885</v>
+        <v>218.5548318442426</v>
       </c>
       <c r="K38" t="n">
         <v>449.5214871739712</v>
@@ -37549,7 +37549,7 @@
         <v>610.4758285333294</v>
       </c>
       <c r="M38" t="n">
-        <v>696.0462736991416</v>
+        <v>260.1935115138301</v>
       </c>
       <c r="N38" t="n">
         <v>692.5292346007475</v>
@@ -37558,13 +37558,13 @@
         <v>608.2916397995982</v>
       </c>
       <c r="P38" t="n">
-        <v>447.3969602272615</v>
+        <v>481.1079090146533</v>
       </c>
       <c r="Q38" t="n">
-        <v>70.97523524212497</v>
+        <v>283.2902259020296</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>20.73020756594272</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>136.540084148464</v>
+        <v>10.44904880805521</v>
       </c>
       <c r="K39" t="n">
-        <v>113.5163868967481</v>
+        <v>96.80335611188752</v>
       </c>
       <c r="L39" t="n">
         <v>547.7948494832947</v>
       </c>
       <c r="M39" t="n">
-        <v>226.0499520663147</v>
+        <v>691.7550158163147</v>
       </c>
       <c r="N39" t="n">
         <v>246.5870084484681</v>
@@ -37637,10 +37637,10 @@
         <v>596.99701975022</v>
       </c>
       <c r="P39" t="n">
-        <v>461.9679247007679</v>
+        <v>349.1442148118867</v>
       </c>
       <c r="Q39" t="n">
-        <v>255.5832534491083</v>
+        <v>45.5059657132592</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.52903822578423</v>
+        <v>73.52903822578412</v>
       </c>
       <c r="K40" t="n">
-        <v>200.0262910194958</v>
+        <v>200.0262910194957</v>
       </c>
       <c r="L40" t="n">
-        <v>289.4673862654873</v>
+        <v>289.4673862654872</v>
       </c>
       <c r="M40" t="n">
-        <v>311.3067956010508</v>
+        <v>311.3067956010507</v>
       </c>
       <c r="N40" t="n">
-        <v>311.3143951467224</v>
+        <v>311.3143951467223</v>
       </c>
       <c r="O40" t="n">
-        <v>277.536145327495</v>
+        <v>277.5361453274949</v>
       </c>
       <c r="P40" t="n">
-        <v>225.3775729316854</v>
+        <v>225.3775729316853</v>
       </c>
       <c r="Q40" t="n">
-        <v>96.60753577378833</v>
+        <v>96.60753577379064</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>49.45821667216885</v>
+        <v>218.5548318442426</v>
       </c>
       <c r="K41" t="n">
         <v>449.5214871739712</v>
@@ -37795,10 +37795,10 @@
         <v>608.2916397995982</v>
       </c>
       <c r="P41" t="n">
-        <v>447.3969602272615</v>
+        <v>159.3092008431706</v>
       </c>
       <c r="Q41" t="n">
-        <v>70.97523524212497</v>
+        <v>189.9663794541428</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>10.44904880805521</v>
       </c>
       <c r="K42" t="n">
-        <v>361.2685931244661</v>
+        <v>96.80335611188752</v>
       </c>
       <c r="L42" t="n">
-        <v>547.7948494832947</v>
+        <v>176.9545041798356</v>
       </c>
       <c r="M42" t="n">
-        <v>226.0499520663147</v>
+        <v>691.7550158163147</v>
       </c>
       <c r="N42" t="n">
-        <v>246.5870084484681</v>
+        <v>725.9293827920217</v>
       </c>
       <c r="O42" t="n">
         <v>596.99701975022</v>
       </c>
       <c r="P42" t="n">
-        <v>461.9679247007679</v>
+        <v>143.5051560608307</v>
       </c>
       <c r="Q42" t="n">
-        <v>133.9220825617992</v>
+        <v>142.6429954242206</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.52903822578415</v>
+        <v>73.52903822578411</v>
       </c>
       <c r="K43" t="n">
         <v>200.0262910194957</v>
       </c>
       <c r="L43" t="n">
-        <v>289.4673862654873</v>
+        <v>289.4673862654872</v>
       </c>
       <c r="M43" t="n">
         <v>311.3067956010507</v>
@@ -37956,7 +37956,7 @@
         <v>225.3775729316853</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.60753577379067</v>
+        <v>96.60753577379066</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>49.45821667216885</v>
+        <v>218.5548318442426</v>
       </c>
       <c r="K44" t="n">
-        <v>449.5214871739712</v>
+        <v>449.5214871739713</v>
       </c>
       <c r="L44" t="n">
-        <v>610.4758285333294</v>
+        <v>195.3532739139596</v>
       </c>
       <c r="M44" t="n">
         <v>696.0462736991416</v>
       </c>
       <c r="N44" t="n">
-        <v>658.8182858133556</v>
+        <v>692.5292346007476</v>
       </c>
       <c r="O44" t="n">
         <v>608.2916397995982</v>
@@ -38035,7 +38035,7 @@
         <v>481.1079090146533</v>
       </c>
       <c r="Q44" t="n">
-        <v>70.97523524212497</v>
+        <v>283.2902259020297</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>10.44904880805521</v>
+        <v>107.5860785190164</v>
       </c>
       <c r="K45" t="n">
-        <v>96.80335611188752</v>
+        <v>96.80335611188755</v>
       </c>
       <c r="L45" t="n">
-        <v>547.7948494832947</v>
+        <v>176.9545041798356</v>
       </c>
       <c r="M45" t="n">
         <v>691.7550158163147</v>
       </c>
       <c r="N45" t="n">
-        <v>246.5870084484681</v>
+        <v>725.9293827920217</v>
       </c>
       <c r="O45" t="n">
-        <v>596.99701975022</v>
+        <v>596.9970197502201</v>
       </c>
       <c r="P45" t="n">
-        <v>349.1442148118867</v>
+        <v>143.5051560608308</v>
       </c>
       <c r="Q45" t="n">
-        <v>45.5059657132592</v>
+        <v>45.50596571325923</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.52903822578415</v>
+        <v>73.52903822578416</v>
       </c>
       <c r="K46" t="n">
         <v>200.0262910194957</v>
@@ -38184,16 +38184,16 @@
         <v>311.3067956010507</v>
       </c>
       <c r="N46" t="n">
-        <v>311.3143951467221</v>
+        <v>311.3143951467223</v>
       </c>
       <c r="O46" t="n">
         <v>277.5361453274949</v>
       </c>
       <c r="P46" t="n">
-        <v>225.3775729316853</v>
+        <v>225.3775729316854</v>
       </c>
       <c r="Q46" t="n">
-        <v>96.60753577379067</v>
+        <v>96.60753577379069</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
